--- a/Contract_WIP.xlsx
+++ b/Contract_WIP.xlsx
@@ -1,37 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-28920" yWindow="-1470"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,24 +43,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -330,13 +317,133 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="13.7109375"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="9.85546875"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="13.42578125"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" width="10.28515625"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="13.42578125"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" width="4.42578125"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" width="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Date Awarded</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Contract #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Qty</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Contract Total</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>NSN</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Part Name</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Vendor Name</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>P/N</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Preservation Method</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Due Date</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3/5/2019</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>4654</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>654</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>65464</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>4654</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>654</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>654</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Contract_WIP.xlsx
+++ b/Contract_WIP.xlsx
@@ -1,33 +1,229 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Avinash Patel\Desktop\WestSim_App\WestSim\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FEBB5F-825B-479E-BEA5-1A627D162611}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-28920" yWindow="-1470"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
+  <si>
+    <t>Date Awarded</t>
+  </si>
+  <si>
+    <t>Contract #</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Contract Total</t>
+  </si>
+  <si>
+    <t>NSN</t>
+  </si>
+  <si>
+    <t>Part Name</t>
+  </si>
+  <si>
+    <t>Vendor Name</t>
+  </si>
+  <si>
+    <t>P/N</t>
+  </si>
+  <si>
+    <t>Preservation Method</t>
+  </si>
+  <si>
+    <t>Due Date</t>
+  </si>
+  <si>
+    <t>SPE7M5-19-V-6776</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>$1,788.80</t>
+  </si>
+  <si>
+    <t>5935016738169</t>
+  </si>
+  <si>
+    <t>SHELL,ELECTRICAL CO</t>
+  </si>
+  <si>
+    <t>Glenair</t>
+  </si>
+  <si>
+    <t>319HA112NFP25DN</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>2019 AUG 26</t>
+  </si>
+  <si>
+    <t>SPE5EK-19-V-3473</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>$20,831.72</t>
+  </si>
+  <si>
+    <t>5340015205832</t>
+  </si>
+  <si>
+    <t>PLATE,MOUNTING</t>
+  </si>
+  <si>
+    <t>HIAB</t>
+  </si>
+  <si>
+    <t>497-0756</t>
+  </si>
+  <si>
+    <t>SPE7M9-19-V-0106</t>
+  </si>
+  <si>
+    <t>$37,615.00</t>
+  </si>
+  <si>
+    <t>6625014372465</t>
+  </si>
+  <si>
+    <t>TRANSDUCER,MAIN</t>
+  </si>
+  <si>
+    <t>Druck</t>
+  </si>
+  <si>
+    <t>ADTS405189433M0</t>
+  </si>
+  <si>
+    <t>SPE7MC-19-V-5732</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>$11,673.40</t>
+  </si>
+  <si>
+    <t>2040171160645</t>
+  </si>
+  <si>
+    <t>CYLINDER ASSEMBLY,R</t>
+  </si>
+  <si>
+    <t>MAFO</t>
+  </si>
+  <si>
+    <t>479033</t>
+  </si>
+  <si>
+    <t>SPE4A4-19-V-4968</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>$4,596.79</t>
+  </si>
+  <si>
+    <t>6680016687603</t>
+  </si>
+  <si>
+    <t>GLASS,LIQUID SIGHT</t>
+  </si>
+  <si>
+    <t>GEMS</t>
+  </si>
+  <si>
+    <t>822901</t>
+  </si>
+  <si>
+    <t>SPE7L0-19-V-4126</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>$23,886.00</t>
+  </si>
+  <si>
+    <t>6130014243856</t>
+  </si>
+  <si>
+    <t>POWER SUPPLY</t>
+  </si>
+  <si>
+    <t>144392</t>
+  </si>
+  <si>
+    <t>2019 SEP 16</t>
+  </si>
+  <si>
+    <t>SPE7M5-19-P-5770</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>$19,026.00</t>
+  </si>
+  <si>
+    <t>5915013313064</t>
+  </si>
+  <si>
+    <t>FILTER,RADIO FREQUENCY INTERFERENCE</t>
+  </si>
+  <si>
+    <t>ITT</t>
+  </si>
+  <si>
+    <t>TPV66345-1002</t>
+  </si>
+  <si>
+    <t>2019 OCT 20</t>
+  </si>
+  <si>
+    <t>Unit Price</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -43,15 +239,25 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -317,133 +523,287 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="13.7109375"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="9.85546875"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" width="13.42578125"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" width="10.28515625"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" width="13.42578125"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" width="4.42578125"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" width="20"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Date Awarded</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Contract #</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Qty</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Contract Total</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>NSN</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Part Name</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Vendor Name</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>P/N</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Preservation Method</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Due Date</t>
-        </is>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3/5/2019</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>4654</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>654</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>464</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>65464</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>4654</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>654</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>654</t>
-        </is>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>43543</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43543</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43543</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43543</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43543</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43543</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43544</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Contract_WIP.xlsx
+++ b/Contract_WIP.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-28920" yWindow="-1470"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="13140" windowWidth="24240" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -323,13 +323,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" width="13.7109375"/>
     <col bestFit="1" customWidth="1" max="2" min="2" width="17.7109375"/>
@@ -339,8 +339,7 @@
     <col bestFit="1" customWidth="1" max="6" min="6" width="38"/>
     <col bestFit="1" customWidth="1" max="7" min="7" width="13.42578125"/>
     <col bestFit="1" customWidth="1" max="8" min="8" width="18.140625"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" width="20"/>
-    <col bestFit="1" customWidth="1" max="11" min="10" width="11.7109375"/>
+    <col bestFit="1" customWidth="1" max="10" min="9" width="11.7109375"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -386,15 +385,10 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Unit Price</t>
+          <t>Preservation Method</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
-        <is>
-          <t>Preservation Method</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
         <is>
           <t>Due Date</t>
         </is>
@@ -439,12 +433,12 @@
           <t>319HA112NFP25DN</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr">
-        <is>
-          <t>CP</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
         <is>
           <t>2019 AUG 26</t>
         </is>
@@ -489,12 +483,12 @@
           <t>497-0756</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>CP</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>2019 AUG 26</t>
         </is>
@@ -539,12 +533,12 @@
           <t>ADTS405189433M0</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>CP</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t>2019 AUG 26</t>
         </is>
@@ -589,12 +583,12 @@
           <t>479033</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>CP</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>2019 AUG 26</t>
         </is>
@@ -639,12 +633,12 @@
           <t>822901</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>CP</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>2019 AUG 26</t>
         </is>
@@ -689,12 +683,12 @@
           <t>144392</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr">
-        <is>
-          <t>CP</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
         <is>
           <t>2019 SEP 16</t>
         </is>
@@ -739,12 +733,12 @@
           <t>TPV66345-1002</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>CP</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>2019 OCT 20</t>
         </is>
@@ -793,15 +787,10 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>664.00</t>
+          <t>M41</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>2019 JUL 18</t>
         </is>
@@ -850,15 +839,10 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>4,787.00</t>
+          <t>CP</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
-        <is>
-          <t>CP</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>2019 AUG 27</t>
         </is>
@@ -907,15 +891,10 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2,317.00</t>
+          <t>CP</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>CP</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>2019 SEP 16</t>
         </is>
@@ -964,15 +943,10 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>574.60</t>
+          <t>CP</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
-        <is>
-          <t>CP</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
         <is>
           <t>2019 AUG 22</t>
         </is>
@@ -1021,15 +995,10 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1,038.81</t>
+          <t>CP</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
-        <is>
-          <t>CP</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
         <is>
           <t>2019 AUG 28</t>
         </is>
@@ -1078,15 +1047,10 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>8,289.00</t>
+          <t>CP</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
-        <is>
-          <t>CP</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
         <is>
           <t>2019 SEP 17</t>
         </is>
@@ -1135,17 +1099,324 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>28.63</t>
+          <t>M10</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
           <t>2019 JUL 22</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3/25/2019</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>SPE7M2-19-V-1046</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>$32,557.65</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>5330010778314</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>PACKING ASSORTMENT,PREFORMED</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Munters</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>43125-08</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>M33</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>2019 SEP 03</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3/25/2019</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SPE7L1-19-V-4818</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>$2,224.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>3020016570251</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>GEAR,ANTIBACKLASH,H</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>KTSDI</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>510251-163</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>M41</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>2019 JUN 28</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3/25/2019</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>SPE7M0-19-V-6074</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>$12,650.22</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>5930013674492</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>SWITCH,FLOW</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>GEMS</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>139644</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>2019 SEP 03</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3/25/2019</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>SPE7M0-19-V-6059</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>$6,219.84</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>5930014842487</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>SWITCH,FLOW</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>GEMS</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>159297</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>2019 SEP 03</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3/25/2019</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>SPE7MC-19-V-5914</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>$4,654.00 </t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>5935014967270</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>BACKSHELL,ELECTRICAL CONNECTOR</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>447HT325XW2519</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>2019 SEP 03</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3/25/2019</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>SPE7M1-19-V-5446</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>$9,545.28 </t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>6110014091404</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>CONTROLLER,MOTOR</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Morpac</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>70000-4</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>2019 SEP 03</t>
         </is>
       </c>
     </row>

--- a/Contract_WIP.xlsx
+++ b/Contract_WIP.xlsx
@@ -323,7 +323,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
@@ -1420,6 +1420,162 @@
         </is>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3/26/2019</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>SPE7MC-19-V-5974</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>$14,743.86 </t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>5999016427529</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>DELAY LINE</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Data Delay Devices</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>583R874H08</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>2019 SEP 03</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>3/26/2019</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>SPE4A4-19-V-5178</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>$1,568.35 </t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>6150015755067</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>CABLE ASSEMBLY,POWER,ELECTRICAL</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>DITMCO</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>114-04030-0008</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>2019 JUL 24</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>3/27/2019</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-P-5961</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>$43,380.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>5935016786940</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>BACKSHELL,ELECTRICAL CONNECTOR</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>445FS065NF24343</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>M41</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>2019 SEP 03</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Contract_WIP.xlsx
+++ b/Contract_WIP.xlsx
@@ -323,7 +323,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
@@ -1576,6 +1576,162 @@
         </is>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>3/27/2019</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>SPE7M1-19-V-5560</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>$7,011.31</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>5998016130768</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>CIRCUIT CARD ASSEMBLY</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>DIT-MCO</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>114-02254-0003</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>GX</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>2019 AUG 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>3/27/2019</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>SPE7MC-19-V-6036</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>$3,085.52</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>4820011455601</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>DISK,VALVE</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Griswold</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>39983C</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>2019 SEP 03</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>3/27/2019</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>SPE7MC-19-V-6070</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>$4,944.30</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>5935015103860</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>BACKSHELL,ELECTRICAL CONNECTOR</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>440BJ031NF2710N</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>2019 SEP 03</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Contract_WIP.xlsx
+++ b/Contract_WIP.xlsx
@@ -323,13 +323,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" width="13.7109375"/>
     <col bestFit="1" customWidth="1" max="2" min="2" width="17.7109375"/>
@@ -1836,6 +1836,162 @@
         </is>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>4/1/2019</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-V-7228</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>$629.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>5935015527394</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>BACKSHELL,ELECTRICAL CONNECTOR</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>390AS002NF0804H3</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>2019 SEP 09</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>4/1/2019</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>SPE4A6-19-V-070V</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>$17,032.68</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>5342015037327</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>MAGNET,HOLDER ASSY</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>GEMS</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>137444</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>ZZ</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>2019 SEP 09</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>4/2/2019</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-P-6235</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>$65,145.00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>5935016786944</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>BACKSHELL,ELECTRICAL CONNECTOR</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>445HS065NF25064</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>2019 SEP 19</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/Contract_WIP.xlsx
+++ b/Contract_WIP.xlsx
@@ -323,7 +323,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="I43" sqref="I43"/>
@@ -1992,6 +1992,110 @@
         </is>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>4/2/2019</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-V-7283</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>$2,034.15</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>5935013408735</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>BACKSHELL, ELECTRICA</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>G26552412A1.5A</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>2019 SEP 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>4/2/2019</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>SPE7M8-19-P-2073</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>$24,733.80</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>5930013674478</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>SWITCH,FLOW</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>GEMS</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>139634</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>2019 SEP 09</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/Contract_WIP.xlsx
+++ b/Contract_WIP.xlsx
@@ -323,13 +323,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" width="13.7109375"/>
     <col bestFit="1" customWidth="1" max="2" min="2" width="17.7109375"/>
@@ -2096,6 +2096,318 @@
         </is>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>4/4/2019</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>654</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>654</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>654</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>654</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>654</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>654</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>654</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>654</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>654</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>4/4/2019</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>6987</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>9456</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>453</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>15849</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>489</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>4968</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>484</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>4/4/2019</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>984</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>65156</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>484</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>415</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>684894</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>4/4/2019</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>654</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>878</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>7979</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>8798</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>7987</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>4/4/2019</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>987</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>7798</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>798</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>7987</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>4/4/2019</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>654</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>564</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6456</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>564</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>56465</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>4654</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/Contract_WIP.xlsx
+++ b/Contract_WIP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Avinash Patel\Desktop\WestSim_App\WestSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2247C1-7038-48E3-9E1A-190121F452BE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E747FB-8D5B-47D2-A7DF-47DF150B0FF3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1579,8 +1579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1592,7 +1592,7 @@
     <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>

--- a/Contract_WIP.xlsx
+++ b/Contract_WIP.xlsx
@@ -323,7 +323,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J69"/>
+  <dimension ref="A1:J91"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="H41" sqref="H41"/>
@@ -3917,6 +3917,1150 @@
         </is>
       </c>
     </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>4/12/2019</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>SPE4A4-19-V-5575</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>$9,193.06 </t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>6680016687603</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>GLASS,LIQUID SIGHT</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>GEMS</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>822901</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>2019 SEP 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>4/15/2019</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-V-7837</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>$3,461.12 </t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>5935015749335</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>CONNECTOR,PLUG,ELECTRICAL</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Connective</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>CD90556C28612P</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>2019 SEP 23</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>4/15/2019</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>SPE4A6-19-V-105E</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>$4,970.00</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>5975016689905</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>JUNCTION BOX</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>140-060XMS-05T5</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>2019 SEP 03</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>4/15/2019</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>SPE4A4-19-V-5625</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>$4,431.56 </t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>6680003918667</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>FLOAT ASSEMBLY</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>GEMS</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>32240</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>ZZ</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>2019 SEP 23</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>4/15/2019</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>SPE7L5-19-P-0636</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>$5,859.74</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>2990015316690</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>OIL PUMP ASSEMBLY</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Sauer</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>064 119</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>2019 SEP 23</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>4/15/2019</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>SPE7M1-19-V-6134</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>$16,257.60 </t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>6625014252983</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>CALIBRATOR,COMPUTER</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>GEMS</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>131296</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>M41</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>2019 SEP 23</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>4/15/2019</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-V-7801</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>$24,053.12 </t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>5945014900095</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>RELAY,ELECTROMAGNET</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Phoenix</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>30411</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>2019 OCT 02</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>4/15/2019</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-V-7805</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>$12,548.91</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>5935015871640</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>COVER,ELECTRICAL CO</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>500-008N1GH</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>2019 SEP 23</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>4/16/2019</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>SPE7MC-19-V-6854</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>$14,936.74 </t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>5935014967394</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>BACKSHELL,ELECTRICAL CONNECTOR</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>447HS325XW1510</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>2019 SEP 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>4/16/2019</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>SPE7M8-19-V-2097</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>$5,870.20 </t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>5999012501503</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>SHIELDING GASKET,ELECTRICAL</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>M28840/24GB</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>M41</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>2019 SEP 23</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>4/16/2016</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>SPE7M1-19-V-6205</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>$13,579.11</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>6110015294840</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>CONTROLLER,MOTOR</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Indeeco</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>1020757</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>2019 OCT 03</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>4/16/2019</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>SPE4A4-19-V-5672</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>$4,014.00 </t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>6685014611617</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>GAGE,DIFFERENTIAL,DIAL</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Cameron</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>19RCXXX0X10E1BXAXX01</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>2019 SEP 23</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>4/17/2019</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-V-7918</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>$2,920.82 </t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>5935016189523</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>BACKSHELL,ELECTRICAL CONNECTOR</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>443AS001NF1001-2S</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>2019 SEP 24</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>4/17/2019</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-V-7904</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>$3,250.44</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>5998014377270</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>CIRCUIT CARD ASSEMBLY</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Druck</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>ADTS405-1894-10-M1</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>GX</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>2019 OCT 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>4/17/2019</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>SPE7M1-19-V-6235</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>$2,576.00</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>5935016151707</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>BACKSHELL,ELECTRICAL CONNECTOR</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>447HW325XW1913B</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>2019 SEP 24</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>4/17/2019</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>SPE7M1-19-V-6322</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>$3,166.00</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>5935016764014</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>BACKSHELL,ELECTRICA</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>447AW325XW1005</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>M10</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>2019 SEP 24</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>4/17/2019</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>SPE5E8-19-P-2056</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>$951.08</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>5331123602554</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>O-RING</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Sauer</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>037 526</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>M33</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>2019 SEP 24</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>4/17/2019</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>SPE4A4-19-V-5728</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>$19,904.46</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>1680016099014</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>NRP,THUMBNAIL FAIRI</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Avibank</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>91080-13</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>2019 NOV 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>4/17/2019</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>SPE4A4-19-V-5717</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>$2,848.00 </t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>5975016657520</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>CHASSIS,ELECTRICAL-</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Elma</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>CAP004733</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>M10</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>2019 SEP 24</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>4/17/2019</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-V-7958</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>$1,110.21 </t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>5935013887082</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>COVER,ELECTRICAL CO</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Molded</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>901200-35-55</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>2019 AUG 26</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>4/17/2019</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-V-7956</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>$575.76 </t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>5935016153242</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>CLAMP,CABLE,ELECTRICAL</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>620HS042XO21</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>2019 SEP 24</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>4/17/2019</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-V-7947</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>$398.00</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>5996016102233</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>AMPLIFIER,AUDIO FRE</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Parts Express</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>PT8000CH</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>2019 JUL 16</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/Contract_WIP.xlsx
+++ b/Contract_WIP.xlsx
@@ -323,7 +323,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J91"/>
+  <dimension ref="A1:J95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="H41" sqref="H41"/>
@@ -5061,6 +5061,214 @@
         </is>
       </c>
     </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>4/18/2019</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>SPE5EM-19-V-4069</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>$299.94 </t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>5330016570078</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>SEAL,PLAIN</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>KTSDI</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>180X210L08N</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>M33</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>2019 AUG 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>4/18/2019</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-V-8001</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>$745.00</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>5920015723699</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>FUSE,CARTRIDGE</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Rohde Schwarz</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>0099-6729-00</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>2019 AUG 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>4/18/2019</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>SPE7M2-19-V-1181</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>$769.44 </t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>5355011119493</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>POINTER,DIAL</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Cameron</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>0315-0005.B</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>2019 SEP 05</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>4/19/2019</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>SPE7MC-19-V-7094</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>$4,609.86 </t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>5915015956493</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>FILTER,RADIO FREQUE</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Genisco</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>GF68200-50B</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>2019 OCT 07</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/Contract_WIP.xlsx
+++ b/Contract_WIP.xlsx
@@ -323,7 +323,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J95"/>
+  <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="H41" sqref="H41"/>
@@ -5269,6 +5269,266 @@
         </is>
       </c>
     </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>4/22/2019</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>SPE7L7-19-V-0927</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>$4,758.00 </t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>6130014355672</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>POWER SUPPLY</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Druck</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>ADTS405-1892-25-M0</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>M41</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>2019 SEP 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>4/22/2019</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-V-8063</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>$5,629.94 </t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>5935014967356</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>BACKSHELL,ELECTRICA</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>447AS325XW2015</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>2019 SEP 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>4/22/2019</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>SPE7MC-19-V-7180</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>$3,229.35 </t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>5996016689371</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>AMPLIFIER,TRIGGER P</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Network Technologies</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>ST-C5USBV-1000S</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>M41</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>2019 SEP 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>4/22/2019</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>SPE4A6-19-V-123D</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>$2,042.57 </t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>6685016184832</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>GAGE,DIFFERENTIAL,D</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Cameron</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>19RCXXX0X15E1BXAXX02</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>M10</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>2019 SEP 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>4/23/2019</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>SPE4A6-19-P-D929</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>$4,289.45</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>5977015101334</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>ELECTRODE</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>GEMS</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>7801346</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>2019 SEP 26</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/Contract_WIP.xlsx
+++ b/Contract_WIP.xlsx
@@ -323,7 +323,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J100"/>
+  <dimension ref="A1:J102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="H41" sqref="H41"/>
@@ -5529,6 +5529,110 @@
         </is>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>4/23/2019</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>SPE4A4-19-V-5882</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>$6,637.10</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>6680010876055</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>TRANSMITTER,LIQUID</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>GEMS</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>48098</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>ZZ</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>2019 SEP 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>4/23/2019</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>SPE7L3-19-V-5652</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>$1,679.36 </t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>3040012589487</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>PLATE,RETAINING,SHA</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Timken</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>2051G92-001</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>2019 SEP 30</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/Contract_WIP.xlsx
+++ b/Contract_WIP.xlsx
@@ -323,7 +323,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J102"/>
+  <dimension ref="A1:J105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="H41" sqref="H41"/>
@@ -5633,6 +5633,162 @@
         </is>
       </c>
     </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>4/24/2019</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>SPE7L4-19-V-0874</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>$2,389.38 </t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>5935012860663</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>CONNECTOR,PLUG,ELEC</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>CIR06G2-14S-6S-F80</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>ZZ</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>2019 OCT 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>4/24/2019</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>SPE8E8-19-V-1727</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>$5,114.82</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>4420015045491</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>BAFFLE,FLUID COOLER</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Fluid Handling</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>4371641-0476</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>2019 OCT 01</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>4/24/2019</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>SPE7M1-19-V-6499</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>$1,677.39 </t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>5999012232712</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>DELAY LINE</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Data Delay Devices</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>DDU7-8212</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>2019 OCT 01</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/Contract_WIP.xlsx
+++ b/Contract_WIP.xlsx
@@ -323,7 +323,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J105"/>
+  <dimension ref="A1:J109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="H41" sqref="H41"/>
@@ -5789,6 +5789,214 @@
         </is>
       </c>
     </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>4/25/2019</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>SPE5EM-19-V-4186</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>$324.00 </t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>5330012549189</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>GASKET</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>American Metal Bearing</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>G001</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>M33</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>2019 OCT 02</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>4/26/2019</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>SPE4A6-19-P-E296</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>$13,695.42</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>5895016527348</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>TRANSMITTER GROUP</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>GEMS</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>822610</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>M41</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>2019 OCT 07</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>4/26/2019</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>SPE7M8-19-P-2323</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>$16,436.00</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>5930014065242</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>SWITCH,LIQUID LEVEL</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>GEMS</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>LS-76725</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>2019 OCT 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>4/26/2019</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>SPE4A6-19-V-136J</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>$61,583.70 </t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>6680013650925</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>TRANSMITTER,LIQUID</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>GEMS</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>42880-0105</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>2019 OCT 08</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/Contract_WIP.xlsx
+++ b/Contract_WIP.xlsx
@@ -323,7 +323,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J109"/>
+  <dimension ref="A1:J112"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="H41" sqref="H41"/>
@@ -5997,6 +5997,162 @@
         </is>
       </c>
     </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>4/29/2019</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>SPE7M0-19-V-7246</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>$12,316.48 </t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>5930008902459</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>SWITCH,LIQUID LEVEL</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>GEMS</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>1CRH1U</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>2019 OCT 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>4/29/2019</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>SPE7MC-19-V-7449</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>$1,857.00</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>4330015273783</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>FILTER ELEMENT,FLUID</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Norman</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>U-916</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>2019 AUG 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>4/29/2019</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>SPE7MC-19-V-7457</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>$11,570.40</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>5935012619030</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>BACKSHELL,ELECTRICA</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>M85049/3W15A1</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>2019 OCT 07</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/Contract_WIP.xlsx
+++ b/Contract_WIP.xlsx
@@ -323,7 +323,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J112"/>
+  <dimension ref="A1:J116"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="H41" sqref="H41"/>
@@ -6153,6 +6153,214 @@
         </is>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>4/30/2019</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>SPE7L0-19-V-5061</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>$7,539.00 </t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>6130014243614</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>POWER SUPPLY</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>GEMS</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>144875</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>2019 OCT 07</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>4/30/2019</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>SPE7MC-19-V-7482</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>$4,344.00</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>5935014489052</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>BACKSHELL,ELECTRICA</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>712FS277NF1012-31</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>2019 OCT 07</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>4/30/2019</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>SPE5E3-19-V-7870</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>$391.14 </t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>5330013722277</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>GASKET</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Timken</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>01070-0279LOC6-11</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>M33</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>2019 OCT 07</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>4/30/2019</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>SPE5E3-19-V-7833</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>$391.41</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>5330013722276</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>GASKET</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Timken</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>01070-0279LOC6-9</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>M33</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>2019 OCT 07</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/Contract_WIP.xlsx
+++ b/Contract_WIP.xlsx
@@ -323,7 +323,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J116"/>
+  <dimension ref="A1:J119"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="H41" sqref="H41"/>
@@ -6361,6 +6361,162 @@
         </is>
       </c>
     </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>5/1/2019</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>SPE7L1-19-V-6683</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>$1,679.36 </t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>3040012589487</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>PLATE,RETAINING,SHA</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Timken</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>2051G92-001</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>2019 OCT 08</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>5/1/2019</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>SPE7M0-19-V-7348</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>$29,862.37 </t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>5930014526213</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>SWITCH,FLOW</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>GEMS</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>153105</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>2019 OCT 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>5/1/2019</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>SPE7L7-19-V-0978</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>$5,741.40</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>6130014480725</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>BAG,POWER SUPPLY AS</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Druck</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>ADTS405-1728-39-M0</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>2019 OCT 08</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/Contract_WIP.xlsx
+++ b/Contract_WIP.xlsx
@@ -323,7 +323,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J119"/>
+  <dimension ref="A1:J123"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="H41" sqref="H41"/>
@@ -6517,6 +6517,214 @@
         </is>
       </c>
     </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>5/2/2019</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>SPE4A6-19-V-147D</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>$15,713.40</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>5895016609832</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>CONVERTER,MEDIA</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>057-0084-1FX-NF0NN</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>M41</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>2019 NOV 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>5/2/2019</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>SPE5E7-19-V-4088</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>$3,096.00</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>5315012753455</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>PIN,QUICK RELEASE</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Avibank</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>50921R8T16N</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>2019 OCT 29</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>5/2/2019</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>SPE7M1-19-V-6739</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>$2,307.63 </t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>5935016193208</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>BACKSHELL,ELECTRICA</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>443HH001NF2509S</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>M10</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>2019 OCT 09</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>5/2/2019</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>SPE4A6-19-V-147W</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>$4,486.08</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>5825015571451</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>PROCESS CONTROLLER</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Indeeco</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>1020759</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>ZZ</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>2019 OCT 09</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/Contract_WIP.xlsx
+++ b/Contract_WIP.xlsx
@@ -323,7 +323,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J123"/>
+  <dimension ref="A1:J128"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="H41" sqref="H41"/>
@@ -6725,6 +6725,266 @@
         </is>
       </c>
     </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>5/6/2019</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-V-8526</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>$32,533.18</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>5935015680679</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>DUMMY CONNECTOR,PLUG</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>250-020</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>2019 NOV 04</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>5/6/2019</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>SPE7M1-19-V-6779</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>$1,487.00</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>5998014355673</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>CIRCUIT CARD ASSEMBLY</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Druck</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>ADTS405-26-1892-M0</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>GX</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>2019 OCT 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>5/6/2019</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>SPE4A0-19-V-0814</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>$4,411.00</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>6685011147365</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>GAGE,DIFFERENTIAL,D</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Cameron</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>190CXXX0X20E1BXAXX02</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>2019 OCT 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>5/7/2019</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>SPE5EK-19-V-4382</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>$3,912.22 </t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>5340011470720</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>CAP,PROTECTIVE,DUST</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>660-020M14R14</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>2019 OCT 24</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>5/7/2019</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>SPE5E2-19-V-6521</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>$137.78</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>5305012767369</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>SCREW,MACHINE</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Cameron</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>0111.0015.J</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>2019 SEP 04</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/Contract_WIP.xlsx
+++ b/Contract_WIP.xlsx
@@ -45,10 +45,13 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -324,10 +327,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J156"/>
+  <dimension ref="A1:J172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="D148" sqref="D148"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="A156" sqref="A156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -8096,7 +8099,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>$17,991.62 </t>
+          <t>$17,991.62</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -8200,7 +8203,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>$390.88 </t>
+          <t>$390.88</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -8252,7 +8255,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>$35,473.96 </t>
+          <t>$35,473.96</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -8391,10 +8394,8 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>5/21/2019</t>
-        </is>
+      <c r="A156" s="3" t="n">
+        <v>43607</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -8439,6 +8440,838 @@
       <c r="J156" t="inlineStr">
         <is>
           <t>2019 OCT 28</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>5/22/2019</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>SPE7M1-19-V-7384</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>$7,505.30</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>5935015998509</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>CLAMP,CABLE,ELECTRI</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>319HB105NF15DN</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>2019 NOV 08</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>5/22/2019</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>SPE7M1-19-V-7371</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>$3,070.76</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>5998015867425</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>CIRCUIT CARD ASSEMB</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>FCX</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>AMA738000</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>GX</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>2019 OCT 29</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>5/22/2019</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-V-9185</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>$3,635.40</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>5935014597025</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>BACKSHELL,DUMMY CON</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>370HS001NF1108H4</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>2019 NOV 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>5/22/2019</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>SPE7M1-19-V-7260</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>$2,675.85</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>5935016151707</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>BACKSHELL,ELECTRICA</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>447HW325XW1913B</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>2019 NOV 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>5/22/2019</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-V-9205</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>$1,161.28</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>5935014612332</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>BACKSHELL,ELECTRICA</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>450AA005NF14</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>2019 NOV 04</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>5/22/2019</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>SPE7M1-19-V-7274</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>$6,869.28</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>6110015116558</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>SLAVE POWER CONTROL</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Indeeco</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>1020882</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>2019 OCT 29</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>5/22/2019</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>SPE7M0-19-V-7828</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>$3,983.44</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>5935016748942</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>BACKSHELL,DUMMY CON</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>390AJ001Z12416H-49A</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>2019 NOV 08</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>5/22/2019</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>SPE7M0-19-V-7830</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>$1,485.93 </t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>5998014355673</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>CIRCUIT CARD ASSEMBLY</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Druck</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>ADTS405-26-1892-M0</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>GX</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>2019 OCT 29</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>5/23/2019</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>SPE4A6-19-V-204D</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>$2,452.75</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>5975015596748</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>ADAPTER,ELECTRICAL</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>712FS178B1428-31</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>2019 NOV 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>5/23/2019</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>SPE5EK-19-V-4672</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>$9,487.41</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>5340016801308</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>BRACKET,MOUNTING</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>HIAB</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>387-4832</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>2019 NOV 04</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>5/23/2019</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-V-9226</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>$503.73 </t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>5945016203288</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>RELAY,SOLID STATE</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Sauer</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>DB0008</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>M41</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>2019 OCT 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>5/23/2019</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>SPE4A6-19-V-203B</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>$2,500.68</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>5940016795082</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>TERMINAL BOX</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>HIAB</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>387-5300</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>2019 OCT 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>5/23/2019</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-V-9223</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>$4,801.05 </t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>5935015998189</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>CLAMP,CABLE,ELECTRI</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>319HA112NF25DN</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>2019 NOV 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>5/23/2019</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-V-9212</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>$635.84 </t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>5935013046895</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>BACKSHELL,ELECTRICA</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Kern Engineering</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>BAT08-18W03C</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>2019 OCT 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>5/23/2019</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>SPE4A6-19-V-202Q</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>$556.00 </t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>6150013923696</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>CABLE ASSEMBLY,SPEC</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Morpac</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>70091-2</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>2019 OCT 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>5/23/2019</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>SPE4A4-19-V-6635</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>$17,165.00 </t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>6150012081693</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>CABLE ASSEMBLY,POWE</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>GEMS</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>37890-02-10-008-HP</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>2019 NOV 12</t>
         </is>
       </c>
     </row>

--- a/Contract_WIP.xlsx
+++ b/Contract_WIP.xlsx
@@ -327,7 +327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J172"/>
+  <dimension ref="A1:J175"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
       <selection activeCell="A156" sqref="A156"/>
@@ -9275,6 +9275,162 @@
         </is>
       </c>
     </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>5/24/2019</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>SPE5E4-19-V-6944</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>$1,303.20</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>5306015703844</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>BOLT,ASSEMBLED SLEE</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Avibank</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>IT147B4-8</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>2019 NOV 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>5/24/2019</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>SPE4A6-19-V-207S</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>$446.00</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>5975015596748</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>ADAPTER,ELECTRICAL</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>712FS178B1428-31</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>2019 OCT 31</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>5/24/2019</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>SPE5E7-19-V-4513</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>$304.00 </t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>5340993858189</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>PLATE,MOUNTING</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>HIAB</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>MUHLD148-709</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>2019 OCT 31</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/Contract_WIP.xlsx
+++ b/Contract_WIP.xlsx
@@ -327,7 +327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J175"/>
+  <dimension ref="A1:J182"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
       <selection activeCell="A156" sqref="A156"/>
@@ -9431,6 +9431,370 @@
         </is>
       </c>
     </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>5/28/2019</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>SPE7MC-19-V-8465</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>$13,227.53 </t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>2040171153157</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>DOG,DOOR,MARINE</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>MAFO</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>C945192</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>2019 NOV 04</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>5/28/2019</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>SPE4A6-19-V-212D</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>$3,262.56 </t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>5365014263812</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>PLUG,MACHINE THREAD</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Fluid Handling</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>3-378-501-901-07</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>2019 NOV 04</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>5/28/2019</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-V-9313</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>$2,017.39</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>5935010579682</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>CONNECTOR,RECEPTACL</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Phoenix</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>30085-002</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>2019 NOV 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>5/28/2019</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>SPE7M1-19-V-7501</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>$22,931.95</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>6110014091403</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>CONTROLLER,MOTOR</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Morpac</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>70000-3</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>2019 NOV 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>5/28/2019</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>SPE4A4-19-V-6755</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>$1,183.14 </t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>5970014781655</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>INSULATION SLEEVING</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>G9560-09NFC</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>2019 NOV 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>5/28/2019</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-V-9356</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>$23,183.08</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>5935015871635</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>COVER,ELECTRICAL CONNECTOR</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>500-008N2GH</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>2019 NOV 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>5/28/2019</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>SPE5E9-19-V-4313</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>$2,528.00 </t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>5315016798800</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>PIN,STRAIGHT,HEADED</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>HIAB</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>387-4909</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>2019 NOV 04</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/Contract_WIP.xlsx
+++ b/Contract_WIP.xlsx
@@ -327,7 +327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J182"/>
+  <dimension ref="A1:J184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
       <selection activeCell="A156" sqref="A156"/>
@@ -9795,6 +9795,110 @@
         </is>
       </c>
     </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>5/29/2019</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>SPE4A0-19-V-0885</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>$10,613.04 </t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>6695015440731</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>CALIBRATION SET,PRI</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>DITMCO</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>111-02553-0002</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>2019 OCT 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>5/29/2019</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>SPE7MC-19-V-8496</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>$5,989.50</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>5935016623742</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>BACKSHELL,ELECTRICA</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>443HS001NF1102-2S</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>M10</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>2019 NOV 15</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/Contract_WIP.xlsx
+++ b/Contract_WIP.xlsx
@@ -327,7 +327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J184"/>
+  <dimension ref="A1:J186"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
       <selection activeCell="A156" sqref="A156"/>
@@ -9899,6 +9899,110 @@
         </is>
       </c>
     </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>5/30/2019</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-V-9436</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>$2,628.60</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>5935011022860</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>ADAPTER,CABLE CLAMP</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>G3784-102-1.5J</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>2019 NOV 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>5/31/2019</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>SPE5EJ-19-P-1224</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>$10,198.35</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>5330015805517</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>SEAL,NONMETALLIC SPECIAL SHAPED SECTION</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Clean Seal</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>G7099-B</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>2019 NOV 07</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/Contract_WIP.xlsx
+++ b/Contract_WIP.xlsx
@@ -327,7 +327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J186"/>
+  <dimension ref="A1:J190"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
       <selection activeCell="A156" sqref="A156"/>
@@ -10003,6 +10003,214 @@
         </is>
       </c>
     </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>6/3/2019</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>SPE7M1-19-V-7761</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>$13,842.66 </t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>6110015294230</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>CONTROLLER,MOTOR</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Indeeco</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>1020881</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>2019 NOV 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>6/3/2019</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>SPE7M2-19-V-1406</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>$1,867.45</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>6105016723422</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>MOTOR,DIRECT CURRENT</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Micro Mo Electronics</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>1524E012S 15/3K 11.8 1</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>M41</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>2019 NOV 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>6/3/2019</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>SPE4A4-19-V-6935</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>$1,043.00 </t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>5975016574466</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>ADAPTER,ELECTRICAL</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>M24758-4CL</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>2019 NOV 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>6/3/2019</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>SPE8ED-19-P-0885</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>$6,590.07</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>5420013657915</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>BAG, BAILEY BRIDGE PARTS AND TOOLS. PLASTIC</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>CS Antennas</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>33018</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>2019 NOV 06</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/Contract_WIP.xlsx
+++ b/Contract_WIP.xlsx
@@ -327,7 +327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J190"/>
+  <dimension ref="A1:J193"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
       <selection activeCell="A156" sqref="A156"/>
@@ -10211,6 +10211,162 @@
         </is>
       </c>
     </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>6/5/2019</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>SPE5EK-19-V-4839</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>$1,436.40</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>5340015549250</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>CAP,PROTECTIVE,DUST</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>660-024N11S4-106-92</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>2019 NOV 22</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>6/5/2019</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>SPE7M0-19-V-8131</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>$117.44</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>4820014730984</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>STEM,FLUID VALVE</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>PBM</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>SPHLC105</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>2019 OCT 23</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>6/5/2019</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>SPE4A6-19-V-226N</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>$1,297.17 </t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>5975014078331</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>ADAPTER,ELECTRICAL</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>RP2100-G05-S</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>ZZ</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>2019 NOV 22</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/Contract_WIP.xlsx
+++ b/Contract_WIP.xlsx
@@ -327,13 +327,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J193"/>
+  <dimension ref="A1:J194"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
       <selection activeCell="A156" sqref="A156"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" width="13.7109375"/>
     <col bestFit="1" customWidth="1" max="2" min="2" width="17.7109375"/>
@@ -10367,6 +10367,58 @@
         </is>
       </c>
     </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>6/6/2019</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>SPE7M1-19-V-7883</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>$8,007.18</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>5935015998509</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>CLAMP,CABLE,ELECTRICAL CONNECTOR</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>319HB105NF15DN</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>2019 DEC 03</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/Contract_WIP.xlsx
+++ b/Contract_WIP.xlsx
@@ -327,13 +327,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J194"/>
+  <dimension ref="A1:J196"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
       <selection activeCell="A156" sqref="A156"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" width="13.7109375"/>
     <col bestFit="1" customWidth="1" max="2" min="2" width="17.7109375"/>
@@ -10419,6 +10419,110 @@
         </is>
       </c>
     </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>6/7/2019</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-V-9760</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>$1,608.36</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>5935016151446</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>BACKSHELL,ELECTRICA</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>447HS325XW1106B</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>2019 NOV 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>6/7/2019</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>SPE7L7-19-V-1150</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>$2,394.46</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>6130014355672</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>POWER SUPPLY</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Druck</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>ADTS405-1892-25-M0</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>M41</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>2019 NOV 14</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/Contract_WIP.xlsx
+++ b/Contract_WIP.xlsx
@@ -327,13 +327,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J196"/>
+  <dimension ref="A1:J197"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
       <selection activeCell="A156" sqref="A156"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" width="13.7109375"/>
     <col bestFit="1" customWidth="1" max="2" min="2" width="17.7109375"/>
@@ -10523,6 +10523,58 @@
         </is>
       </c>
     </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>6/13/2019</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>SPE8E8-19-V-2080</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>$378.00</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>4520013773187</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>HEATING ELEMENT,ELE</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Indeeco</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>53442</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>2019 NOV 20</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/Contract_WIP.xlsx
+++ b/Contract_WIP.xlsx
@@ -327,13 +327,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J197"/>
+  <dimension ref="A1:J200"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
       <selection activeCell="A156" sqref="A156"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" width="13.7109375"/>
     <col bestFit="1" customWidth="1" max="2" min="2" width="17.7109375"/>
@@ -10575,6 +10575,162 @@
         </is>
       </c>
     </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>6/14/2019</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>SPE7L7-19-V-1167</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>$2,394.46 </t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>6130014355672</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>POWER SUPPLY</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Druck</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>ADTS405-1892-25-M0</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>M41</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>2019 NOV 21</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>6/14/2019</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-V-9820</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>$42,408.88 </t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>5935014449281</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>CONNECTOR BODY,PLUG</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>942-011NF40-56S</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>2019 DEC 31</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>6/14/2019</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>SPE7M0-19-P-3130</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>$721.98</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>4820991517754</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>VALVE,HOLD,BOOM HOIST CYLINDER</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>HIAB</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>849-5114</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>2019 NOV 21</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/Contract_WIP.xlsx
+++ b/Contract_WIP.xlsx
@@ -327,7 +327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J200"/>
+  <dimension ref="A1:J204"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
       <selection activeCell="A156" sqref="A156"/>
@@ -10731,6 +10731,214 @@
         </is>
       </c>
     </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>6/17/2019</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>SPE7M1-19-V-8121</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>$108.23 </t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>5935014789602</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>CLAMP,CABLE,ELECTRI</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>450DA001NF18</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>2019 NOV 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>6/17/2019</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>SPE7L0-19-V-6076</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>$49.67 </t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>3040012960520</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>STOP RING HALF</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>HIAB</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>314-8866</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>2019 OCT 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>6/17/2019</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-V-9883</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>$712.08 </t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>5935016099896</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>BACKSHELL,ELECTRICA</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>447HJ109NF0904-L</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>2019 DEC 02</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>6/18/2019</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>SPE8E8-19-V-2095</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>$393.00</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>4520013773187</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>HEATING ELEMENT,ELE</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>Indeeco</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>53442</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>2019 NOV 25</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/Contract_WIP.xlsx
+++ b/Contract_WIP.xlsx
@@ -327,13 +327,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J204"/>
+  <dimension ref="A1:J205"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
       <selection activeCell="A156" sqref="A156"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" width="13.7109375"/>
     <col bestFit="1" customWidth="1" max="2" min="2" width="17.7109375"/>
@@ -10939,6 +10939,58 @@
         </is>
       </c>
     </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>6/19/2019</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>SPE4A0-19-P-0808</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>$4,104.00</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>5975016681467</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>ADAPTER,ELECTRICAL</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>M24758-5 F</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>2019 DEC 06</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/Contract_WIP.xlsx
+++ b/Contract_WIP.xlsx
@@ -327,13 +327,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J205"/>
+  <dimension ref="A1:J207"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
       <selection activeCell="A156" sqref="A156"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" width="13.7109375"/>
     <col bestFit="1" customWidth="1" max="2" min="2" width="17.7109375"/>
@@ -10991,6 +10991,110 @@
         </is>
       </c>
     </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>6/25/2019</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-V-9881</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>$11,307.60</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>5910001057160</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>CAPACITOR,FIXED,PLA</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>Genisco</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>GF8227</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>ZZ</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>2019 DEC 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>6/25/2019</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-V-006L</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>$7,231.06 </t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>5935016623742</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>BACKSHELL,ELECTRICA</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>443HS001NF1102-2S</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>M10</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>2019 DEC 12</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/Contract_WIP.xlsx
+++ b/Contract_WIP.xlsx
@@ -327,7 +327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J207"/>
+  <dimension ref="A1:J211"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
       <selection activeCell="A156" sqref="A156"/>
@@ -11095,6 +11095,214 @@
         </is>
       </c>
     </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>6/27/2019</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>SPE7M3-19-V-4791</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>$22,966.08</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>4730010596367</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>ELBOW,TUBE</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>Aerofit</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>AFP1468T16</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>2019 DEC 24</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>6/27/2019</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>SPE7M1-19-V-8488</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>$4,756.00</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>5935016603512</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>BACKSHELL,ELECTRICA</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>447HW809XW17</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>M10</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>2019 DEC 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>6/27/2019</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>SPE7M1-19-V-8440</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>$964.44 </t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>5935010409312</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>COVER,ELECTRICAL CO</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>G1107-44NGS</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>2019 DEC 24</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>6/27/2019</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>SPE5EK-19-P-2150</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>$62.00</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>5340016482555</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>PLUG, PROTECTIVE, DUST</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>Indeeco</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>1002114</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>2019 OCT 25</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/Contract_WIP.xlsx
+++ b/Contract_WIP.xlsx
@@ -327,13 +327,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J211"/>
+  <dimension ref="A1:J219"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
       <selection activeCell="A156" sqref="A156"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" width="13.7109375"/>
     <col bestFit="1" customWidth="1" max="2" min="2" width="17.7109375"/>
@@ -11303,6 +11303,422 @@
         </is>
       </c>
     </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>7/1/2019</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-V-003N</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>$575.12</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>5935011283778</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>BACKSHELL,ELECTRICA</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>507-002A</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>2019 DEC 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>7/1/2019</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-V-013T</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>$137.36 </t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>5935011500289</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>COVER,ELECTRICAL CO</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>SBP-8-WC</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>2019 DEC 09</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>7/1/2019</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>SPE7M0-19-V-8787</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>$2,010.97</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>5935013027865</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>COVER,ELECTRICAL CO</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>600-009M20S5-05-59</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>2019 DEC 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>7/2/2019</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>SPE4A6-19-P-J451</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>$1,351.33</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>5975016106700</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>CONDUIT ASSEMBLY, NONMETALLIC ELECTRICAL</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>749-844-56</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>2019 DEC 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>7/2/2019</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>SPE7M0-19-V-8925</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>$998.47</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>5998014371311</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>CIRCUIT CARD ASSEMB</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>Druck</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>AS405-24-1892-M0</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>GX</t>
+        </is>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>2019 DEC 09</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>7/2/2019</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>SPE7M0-19-V-8940</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>$2,962.74 </t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>5998014355673</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>CIRCUIT CARD ASSEMB</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>Druck</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>ADTS405-26-1892-M0</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>GX</t>
+        </is>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>2019 DEC 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>7/2/2019</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>SPE4A6-19-V-274X</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>$72.96</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>5365012080348</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>SPACER,SLEEVE</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>HIAB</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>317 7513</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>M10</t>
+        </is>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>2019 DEC 09</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>7/3/2019</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>SPE7M1-19-V-8731</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>$188.49 </t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>5935014789602</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>CLAMP,CABLE,ELECTRI</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>450DA001NF18</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>2019 DEC 10</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/Contract_WIP.xlsx
+++ b/Contract_WIP.xlsx
@@ -327,7 +327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J219"/>
+  <dimension ref="A1:J220"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
       <selection activeCell="A156" sqref="A156"/>
@@ -11719,6 +11719,58 @@
         </is>
       </c>
     </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>7/5/2019</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>SPE7M1-19-V-8698</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>$20,211.90 </t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>6625014357606</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>CONTROL PANEL,TEST</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>Druck</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>ADTS405-1893-65-M0</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>2020 JAN 13</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/Contract_WIP.xlsx
+++ b/Contract_WIP.xlsx
@@ -327,7 +327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J220"/>
+  <dimension ref="A1:J221"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
       <selection activeCell="A156" sqref="A156"/>
@@ -11771,6 +11771,58 @@
         </is>
       </c>
     </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>7/10/2019</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>SPE4A6-19-V-286F</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>$532.84</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>5365016806378</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>SPACER,SLEEVE</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>HIAB</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>6413668</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>2019 DEC 17</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/Contract_WIP.xlsx
+++ b/Contract_WIP.xlsx
@@ -327,13 +327,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J221"/>
+  <dimension ref="A1:J223"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
       <selection activeCell="A156" sqref="A156"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" width="13.7109375"/>
     <col bestFit="1" customWidth="1" max="2" min="2" width="17.7109375"/>
@@ -11823,6 +11823,110 @@
         </is>
       </c>
     </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>7/12/2019</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-V-034P</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>$674.60</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>5935016592678</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>BACKSHELL,ELECTRICAL CONNECTOR</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>390AB001NF2404A</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>M10</t>
+        </is>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>2019 DEC 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>7/12/2019</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>SPE4A6-19-V-288Y</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>$91.68 </t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>5895016435799</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>CONVERTER,VIDEO</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>Network Technologies</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>BNCSV-VGA-CNVTR</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>M41</t>
+        </is>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>2019 DEC 19</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/Contract_WIP.xlsx
+++ b/Contract_WIP.xlsx
@@ -327,7 +327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J223"/>
+  <dimension ref="A1:J225"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
       <selection activeCell="A156" sqref="A156"/>
@@ -11927,6 +11927,110 @@
         </is>
       </c>
     </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>7/15/2019</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-V-004P</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>$3,954.40</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>5935015835365</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>BACKSHELL,ELECTRICAL CONNECTOR</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>500S010NF51B10</t>
+        </is>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>2019 DEC 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>7/16/2019</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>SPE7MC-19-V-9791</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>$5,013.92 </t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>4330015273783</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>FILTER ELEMENT,FLUID</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>Norman Filter</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>U-916</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>2019 DEC 23</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/Contract_WIP.xlsx
+++ b/Contract_WIP.xlsx
@@ -327,13 +327,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J225"/>
+  <dimension ref="A1:J226"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
       <selection activeCell="A156" sqref="A156"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" width="13.7109375"/>
     <col bestFit="1" customWidth="1" max="2" min="2" width="17.7109375"/>
@@ -12031,6 +12031,58 @@
         </is>
       </c>
     </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>7/17/2019</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-V-041X</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>$583.60</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>5935016207186</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>BACKSHELL,ELECTRICA</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>507-146NF25F</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>2019 DEC 24</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/Contract_WIP.xlsx
+++ b/Contract_WIP.xlsx
@@ -327,7 +327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J226"/>
+  <dimension ref="A1:J229"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
       <selection activeCell="A156" sqref="A156"/>
@@ -12083,6 +12083,162 @@
         </is>
       </c>
     </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>7/18/2019</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>SPE7M1-19-V-9051</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>$791.28</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>5935010409312</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>COVER,ELECTRICAL CO</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>G1107-44NGS</t>
+        </is>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>2020 JAN 06</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>7/18/2019</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>SPE7L3-19-V-7376</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>$6,220.03</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>2530016569793</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>RETAINER,ARM BUSHIN</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>KTSDI</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>91.4634.4</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>M33</t>
+        </is>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>2019 DEC 26</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>7/23/2019</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-P-9245</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>$7,813.00</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>5985016646736</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>DIPLEXER</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>Metropole</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>DFP-106A-1</t>
+        </is>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>2019 DEC 30</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/Contract_WIP.xlsx
+++ b/Contract_WIP.xlsx
@@ -327,13 +327,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J229"/>
+  <dimension ref="A1:J243"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
       <selection activeCell="A156" sqref="A156"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" width="13.7109375"/>
     <col bestFit="1" customWidth="1" max="2" min="2" width="17.7109375"/>
@@ -12239,6 +12239,734 @@
         </is>
       </c>
     </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>7/24/2019</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>SPE5E8-19-V-7596</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>$191.80</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>5331016570508</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>O-RING</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>KTSDI</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>O265X4N</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>M33</t>
+        </is>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>2019 DEC 31</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>7/24/2019</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>SPE5EJ-19-V-5639</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>$161.01</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>5330016805236</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>SEAL RING,METAL</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>HIAB</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>988-2171</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>M10</t>
+        </is>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>2019 DEC 31</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>7/24/2019</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>SPE5E2-19-V-7729</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>$86.94</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>5305016805413</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>SCREW,CAP,SOCKET HEAD</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>HIAB</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>984-6794</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>2019 DEC 31</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>7/24/2019</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>SPE5E7-19-V-5329</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>$417.40</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>5315016805482</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>PIN,STRAIGHT,HEADLE</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>HIAB</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>3706176</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>2019 DEC 31</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>7/24/2019</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>SPE7L0-19-V-6627</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>$33,332.46</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>6130014355672</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>POWER SUPPLY</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>Druck</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>ADTS405-1892-25-M0</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>M41</t>
+        </is>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>2020 JAN 21</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>7/24/2019</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>SPE5E2-19-V-8254</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>$177.00</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>5305015213878</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>SCREW,CAP,HEXAGON H</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>HIAB</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>448-2301</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>2019 DEC 31</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>7/24/2019</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>SPE5E9-19-V-4879</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>$665.60 </t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>5315016806019</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>PIN,STRAIGHT,HEADED</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>HIAB</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>3536556</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>2019 DEC 31</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>7/24/2019</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>SPE4A6-19-P-K651</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>$8,121.85</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>6680013004825</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>SWITCH,LIQUID LEVEL</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>GEMS</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>118748</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>2019 DEC 31</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>7/25/2019</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-V-053R</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>$839.67 </t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>5935016207337</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>DUMMY CONNECTOR,PLU</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>177-00737S1HH12-01</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>2020 JAN 02</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>7/25/2019</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>SPE7M1-19-V-9336</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>$2,334.96</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>5998015867425</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>CIRCUIT CARD ASSEMB</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>FCX</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>AMA738000</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>GX</t>
+        </is>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>2020 JAN 02</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>7/26/2019</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>SPE7L3-19-P-6953</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>$12,071.28</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>2530015262901</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>SPOOL SENSOR</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>HIAB</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>375-1341</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>2020 JAN 07</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>7/26/2019</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>SPE7MC-19-V-010U</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>$20,489.22</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>5998014236161</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>CIRCUIT CARD ASSEMBLY</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>GEMS</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>137578</t>
+        </is>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>GX</t>
+        </is>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>2020 JAN 02</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>7/26/2019</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>SPE7M8-19-P-2907</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>$8,742.30</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>5930016424487</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>SWITCH,FLOW</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>GEMS</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>608786</t>
+        </is>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>2019 DEC 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>7/30/2019</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>SPE5E8-19-V-8025</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>$721.36</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>5331016572360</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>O-RING</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>KTSDI</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>7603NA42X49</t>
+        </is>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>M33</t>
+        </is>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>2020 JAN 06</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/Contract_WIP.xlsx
+++ b/Contract_WIP.xlsx
@@ -327,13 +327,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J243"/>
+  <dimension ref="A1:J244"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
       <selection activeCell="A156" sqref="A156"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" width="13.7109375"/>
     <col bestFit="1" customWidth="1" max="2" min="2" width="17.7109375"/>
@@ -12967,6 +12967,58 @@
         </is>
       </c>
     </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>7/31/2019</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>SPE7M1-19-V-9611</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>$698.00 </t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>5935016207322</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>DUMMY CONNECTOR,PLU</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>177-00725S1HH12-01</t>
+        </is>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>M41</t>
+        </is>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>2020 JAN 07</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/Contract_WIP.xlsx
+++ b/Contract_WIP.xlsx
@@ -327,13 +327,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J244"/>
+  <dimension ref="A1:J246"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
       <selection activeCell="A156" sqref="A156"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" width="13.7109375"/>
     <col bestFit="1" customWidth="1" max="2" min="2" width="17.7109375"/>
@@ -13019,6 +13019,110 @@
         </is>
       </c>
     </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>8/1/2019</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>SPE5EK-19-V-5817</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>$61.37 </t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>5340016482555</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>PLUG,PROTECTIVE,DUS</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>Indeeco</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>1002114</t>
+        </is>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>2019 DEC 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>8/1/2019</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-V-060N</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>$14,753.28</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>5985016646736</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>DIPLEXER</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>Metropole</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>DFP-106A-1</t>
+        </is>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>2019 DEC 02</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/Contract_WIP.xlsx
+++ b/Contract_WIP.xlsx
@@ -327,7 +327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J246"/>
+  <dimension ref="A1:J257"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
       <selection activeCell="A156" sqref="A156"/>
@@ -13123,6 +13123,578 @@
         </is>
       </c>
     </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>8/6/2019</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-V-062D</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>$22,968.72</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>5935006814404</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>CONNECTOR,RECEPTACL</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>GS02-16S8P112</t>
+        </is>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>2020 FEB 24</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>8/6/2019</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-V-019M</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>$12,256.98</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>5935007298952</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>CONNECTOR,RECEPTACL</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>GS02-10SL3P113</t>
+        </is>
+      </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>2020 FEB 03</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>8/6/2019</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-V-052A</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>$3,895.71</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>5935015998194</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>CLAMP,CABLE,ELECTRI</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>319HA112NF11DN</t>
+        </is>
+      </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>2020 JAN 23</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>8/6/2019</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>SPE7M8-19-P-3085</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>$8,163.93</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>5930000973938</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>SWITCH,PUSH</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>Cole</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>500-1394</t>
+        </is>
+      </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>2019 DEC 06</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>8/6/2019</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-V-064A</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>$824.00 </t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>5935016099896</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>BACKSHELL,ELECTRICA</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>447HJ109NF0904-L</t>
+        </is>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>2020 JAN 23</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>8/6/2019</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-V-001W</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>$4,543.50 </t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>5935014697843</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>CLAMP,CABLE,ELECTRI</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>G9091-15-1NF</t>
+        </is>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>2020 JAN 23</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>8/6/2019</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-P-9506</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>$19,705.65</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>5935012340553</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>CONNECTOR,RECEPTACLE,ELECTRICAL</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>MDMV96638-17</t>
+        </is>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>M41</t>
+        </is>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>2020 JAN 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>8/6/2019</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-V-9957</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>$7,193.02 </t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>5935016651439</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>BACKSHELL,ELECTRICA</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>380JH104NF2408M</t>
+        </is>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>2020 JAN 23</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>8/6/2019</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>SPE7MC-19-V-9908</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>$6,557.76 </t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>4810014480781</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>PARTS KIT,HYDRAULIC</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>Druck</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>ADTS405-1893-91-M0</t>
+        </is>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>ZZ</t>
+        </is>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>2020 JAN 21</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>8/6/2019</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-V-038Q</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>$6,570.96 </t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>5935016651439</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>BACKSHELL,ELECTRICA</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>380JH104NF2408M</t>
+        </is>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>2020 FEB 03</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>8/6/2019</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-P-9683</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>$3,851.90</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>5935010161153</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>CONNECTOR,RECEPTACLE,ELECTRICAL</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>KPT2E14-5PDV</t>
+        </is>
+      </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>2020 FEB 03</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/Contract_WIP.xlsx
+++ b/Contract_WIP.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="23880" yWindow="-2685"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="13140" windowWidth="24240" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -327,10 +327,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J257"/>
+  <dimension ref="A1:J259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="A156" sqref="A156"/>
+    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
+      <selection activeCell="A257" sqref="A257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -8825,7 +8825,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>$1,485.93 </t>
+          <t>$1,485.93</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -8981,7 +8981,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>$503.73 </t>
+          <t>$503.73</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -9085,7 +9085,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>$4,801.05 </t>
+          <t>$4,801.05</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -9137,7 +9137,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>$635.84 </t>
+          <t>$635.84</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -9189,7 +9189,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>$556.00 </t>
+          <t>$556.00</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -9241,7 +9241,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>$17,165.00 </t>
+          <t>$17,165.00</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -9397,7 +9397,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>$304.00 </t>
+          <t>$304.00</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -9449,7 +9449,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>$13,227.53 </t>
+          <t>$13,227.53</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -9501,7 +9501,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>$3,262.56 </t>
+          <t>$3,262.56</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -9657,7 +9657,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>$1,183.14 </t>
+          <t>$1,183.14</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -9761,7 +9761,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>$2,528.00 </t>
+          <t>$2,528.00</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -9813,7 +9813,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>$10,613.04 </t>
+          <t>$10,613.04</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -10021,7 +10021,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>$13,842.66 </t>
+          <t>$13,842.66</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -10125,7 +10125,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>$1,043.00 </t>
+          <t>$1,043.00</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -10333,7 +10333,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>$1,297.17 </t>
+          <t>$1,297.17</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -10593,7 +10593,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>$2,394.46 </t>
+          <t>$2,394.46</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -10645,7 +10645,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>$42,408.88 </t>
+          <t>$42,408.88</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -10749,7 +10749,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>$108.23 </t>
+          <t>$108.23</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -10801,7 +10801,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>$49.67 </t>
+          <t>$49.67</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -10853,7 +10853,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>$712.08 </t>
+          <t>$712.08</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -11061,7 +11061,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>$7,231.06 </t>
+          <t>$7,231.06</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -11217,7 +11217,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>$964.44 </t>
+          <t>$964.44</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -11373,7 +11373,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>$137.36 </t>
+          <t>$137.36</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -11581,7 +11581,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>$2,962.74 </t>
+          <t>$2,962.74</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -11685,7 +11685,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>$188.49 </t>
+          <t>$188.49</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -11737,7 +11737,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>$20,211.90 </t>
+          <t>$20,211.90</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -11893,7 +11893,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>$91.68 </t>
+          <t>$91.68</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -11997,7 +11997,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>$5,013.92 </t>
+          <t>$5,013.92</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -12569,7 +12569,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>$665.60 </t>
+          <t>$665.60</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -12673,7 +12673,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>$839.67 </t>
+          <t>$839.67</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -12985,7 +12985,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>$698.00 </t>
+          <t>$698.00</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -13037,7 +13037,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>$61.37 </t>
+          <t>$61.37</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -13349,7 +13349,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>$824.00 </t>
+          <t>$824.00</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -13401,7 +13401,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>$4,543.50 </t>
+          <t>$4,543.50</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -13505,7 +13505,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>$7,193.02 </t>
+          <t>$7,193.02</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -13557,7 +13557,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>$6,557.76 </t>
+          <t>$6,557.76</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -13609,7 +13609,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>$6,570.96 </t>
+          <t>$6,570.96</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -13644,10 +13644,8 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>8/6/2019</t>
-        </is>
+      <c r="A257" s="3" t="n">
+        <v>43684</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
@@ -13692,6 +13690,110 @@
       <c r="J257" t="inlineStr">
         <is>
           <t>2020 FEB 03</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>8/7/2019</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>SPE5E8-19-V-8245</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>$196.02 </t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>5355011453195</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>POINTER,DIAL</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>Cameron</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>D4-224E005</t>
+        </is>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>2020 JAN 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>8/7/2019</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>SPE5E8-19-V-8232</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>$899.99</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>5331016571775</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>O-RING</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>KTSDI</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>O540X4N</t>
+        </is>
+      </c>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>M33</t>
+        </is>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>2020 JAN 14</t>
         </is>
       </c>
     </row>

--- a/Contract_WIP.xlsx
+++ b/Contract_WIP.xlsx
@@ -327,13 +327,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J259"/>
+  <dimension ref="A1:J260"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
       <selection activeCell="A257" sqref="A257"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" width="13.7109375"/>
     <col bestFit="1" customWidth="1" max="2" min="2" width="17.7109375"/>
@@ -13797,6 +13797,58 @@
         </is>
       </c>
     </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>8/8/2019</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>SPE5EK-19-V-6031</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>$253.11</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>5340016482555</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>PLUG,PROTECTIVE,DUS</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>Indeeco</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>1002114</t>
+        </is>
+      </c>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>2020 JAN 15</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/Contract_WIP.xlsx
+++ b/Contract_WIP.xlsx
@@ -327,13 +327,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J260"/>
+  <dimension ref="A1:J263"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
       <selection activeCell="A257" sqref="A257"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" width="13.7109375"/>
     <col bestFit="1" customWidth="1" max="2" min="2" width="17.7109375"/>
@@ -13849,6 +13849,162 @@
         </is>
       </c>
     </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>8/9/2019</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>SPE4A6-19-V-336B</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>$4,913.80</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>5975015239575</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>ADAPTER,ELECTRICAL CONDUIT</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>717-042-3</t>
+        </is>
+      </c>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>2020 JAN 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>8/9/2019</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>SPE7M0-19-V-004F</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>$4,293.00</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>5998015979420</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>CIRCUIT CARD ASSEMB</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>EMS</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>511D3001-1</t>
+        </is>
+      </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>2020 JAN 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>8/9/2019</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>SPE5E2-19-V-8679</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>$31,968.30 </t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>5315012756305</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>PIN,EXPANDING GRIP</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>Avibank</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>ADPC6-25L12C4</t>
+        </is>
+      </c>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>2020 FEB 05</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/Contract_WIP.xlsx
+++ b/Contract_WIP.xlsx
@@ -327,13 +327,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J263"/>
+  <dimension ref="A1:J271"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
       <selection activeCell="A257" sqref="A257"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" width="13.7109375"/>
     <col bestFit="1" customWidth="1" max="2" min="2" width="17.7109375"/>
@@ -14005,6 +14005,422 @@
         </is>
       </c>
     </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>8/12/2019</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>SPE4AL-19-V-0080</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>$70.20</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>4010016541797</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>WIRE ROPE ASSEMBLY</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>Mirada</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>B-50992-3.5</t>
+        </is>
+      </c>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>2019 DEC 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>8/12/2019</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-V-074Y</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>$2,414.56</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>5935016499824</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>BACKSHELL,ELECTRICA</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>443HJ024NF1102-S</t>
+        </is>
+      </c>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>M41</t>
+        </is>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>2020 JAN 29</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>8/12/2019</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>SPE7M0-19-V-005T</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>$3,278.31</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>5930014181759</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>SWITCH SUBASSEMBLY</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>GEMS</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>130362</t>
+        </is>
+      </c>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>2020 JAN 24</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>8/12/2019</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>SPE4A6-19-V-347G</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>$1,358.56</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>5975014957073</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>WYE,ELECTRICAL CONDUIT</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>710-106NFA16B12C12</t>
+        </is>
+      </c>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>2020 FEB 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>8/12/2019</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>SPE7M0-19-V-008T</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>$177.00</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>4710015208097</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>PIPE,BENT,METALLIC</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>HIAB</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>497-0292</t>
+        </is>
+      </c>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>2020 JAN 21</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>8/12/2019</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>SPE7M3-19-V-5724</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>$33,831.00</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>4730004553235</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>ELBOW,TUBE</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>Aerofit</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>AFP677R08</t>
+        </is>
+      </c>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>2020 FEB 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>8/12/2019</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-V-074M</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>$2,661.52</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>5935016512754</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>BACKSHELL,ELECTRICA</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>443AS024NF1404-3S</t>
+        </is>
+      </c>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>2020 FEB 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>8/13/2019</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>SPE5E7-19-P-3543</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>$197.36</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>5340015863088</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>COVER,PROTECTIVE,DUST AND MOISTURE SEAL</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>780-558-2G4-SKC</t>
+        </is>
+      </c>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>2020 JAN 27</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/Contract_WIP.xlsx
+++ b/Contract_WIP.xlsx
@@ -327,7 +327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J271"/>
+  <dimension ref="A1:J272"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
       <selection activeCell="A257" sqref="A257"/>
@@ -14421,6 +14421,58 @@
         </is>
       </c>
     </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>8/15/2019</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>SPE4A6-19-V-359N</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>$82.44</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>4010016541797</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>WIRE ROPE ASSEMBLY</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>Mirada</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>B-50992-3.5</t>
+        </is>
+      </c>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>2020 JAN 02</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/Contract_WIP.xlsx
+++ b/Contract_WIP.xlsx
@@ -327,13 +327,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J272"/>
+  <dimension ref="A1:J280"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
       <selection activeCell="A257" sqref="A257"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" width="13.7109375"/>
     <col bestFit="1" customWidth="1" max="2" min="2" width="17.7109375"/>
@@ -14473,6 +14473,422 @@
         </is>
       </c>
     </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>8/16/2019</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>SPE8E8-19-P-7076</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>$911.40</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>4520016244175</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>HEATER,DUCT TYPE,STATIONARY</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>Indeeco</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>201-240722</t>
+        </is>
+      </c>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>2020 JAN 22</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>8/19/2019</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>SPE4A6-19-P-K526</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>$24,267.75</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>6680007969016</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>THERMOSTAT,FUEL COO</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>Rostra</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>TA27300-34N</t>
+        </is>
+      </c>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>2019 DEC 31</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>8/19/2019</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>SPE5EM-19-V-6210</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>$110.00</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>5330016805478</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>SEAL RING,METAL</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>HIAB</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>384-0603</t>
+        </is>
+      </c>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>M10</t>
+        </is>
+      </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>2020 JAN 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>8/19/2019</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>SPE5E8-19-V-8602</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>$177.00 </t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>5331010676929</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>O-RING</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>Cameron</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>31-001-029</t>
+        </is>
+      </c>
+      <c r="I276" t="inlineStr">
+        <is>
+          <t>M33</t>
+        </is>
+      </c>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>2020 FEB 05</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>8/19/2019</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>SPE4A6-19-P-M078</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>$47.94</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>5975013015399</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>UNION,ELECTRICAL CONDUIT</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>HIAB</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>997 5101</t>
+        </is>
+      </c>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>M10</t>
+        </is>
+      </c>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>2020 JAN 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>8/20/2019</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>SPE5EJ-19-V-6535</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>753</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>$11,242.29</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>5330015805517</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>SEAL,NONMETALLIC SP</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>Clean Seal</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>G7099-B</t>
+        </is>
+      </c>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>2020 JAN 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>8/21/2019</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>SPE5E7-19-P-3597</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>$411.00</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>5315171159698</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>PIN,STRAIGHT,HEADED</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>MAFO</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>C945448</t>
+        </is>
+      </c>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>2019 DEC 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>8/21/2019</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-V-067M</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>$2,568.00</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>5935015529077</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>ADAPTER,ELECTRICAL</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>Atrex</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>ACG9249</t>
+        </is>
+      </c>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>2020 JAN 28</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/Contract_WIP.xlsx
+++ b/Contract_WIP.xlsx
@@ -327,7 +327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J280"/>
+  <dimension ref="A1:J285"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
       <selection activeCell="A257" sqref="A257"/>
@@ -14889,6 +14889,266 @@
         </is>
       </c>
     </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>8/22/2019</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>SPE4A6-19-V-348G</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>$2,500.92</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>5975014957073</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>WYE,ELECTRICAL CONDUIT</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>710-106NFA16B12C12</t>
+        </is>
+      </c>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>2020 FEB 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>8/22/2019</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>SPE4A6-19-V-373W</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>$11,293.52</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>5975015009520</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>ELBOW,ELECTRICAL CONDUIT</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>717-163-1</t>
+        </is>
+      </c>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>2020 FEB 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>8/22/2019</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>SPE4A6-19-V-373G</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>$43.20</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>4010016541797</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>WIRE ROPE ASSEMBLY</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>Mirada</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>B-50992-3.5</t>
+        </is>
+      </c>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>2020 JAN 29</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>8/23/2019</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>SPE7M1-19-V-9415</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>$18,374.96</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>6110015294230</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>CONTROLLER,MOTOR</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>Indeeco</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>1020881</t>
+        </is>
+      </c>
+      <c r="I284" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>2020 JAN 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>8/23/2019</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>SPE7M2-19-P-2008</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>$1,529.34</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>5930015534181</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>SWITCH,ROTARY</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>Cole</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>M3786/4-FGBBE</t>
+        </is>
+      </c>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>M41</t>
+        </is>
+      </c>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>2020 JAN 08</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/Contract_WIP.xlsx
+++ b/Contract_WIP.xlsx
@@ -327,7 +327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J302"/>
+  <dimension ref="A1:J335"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
       <selection activeCell="G292" sqref="G292"/>
@@ -16033,6 +16033,1722 @@
         </is>
       </c>
     </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>8/28/2019</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-P-8814</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>$1,194.40</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>5935015416963</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>DUMMY CONNECTOR,RECEPTACLE</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>650HS010M21</t>
+        </is>
+      </c>
+      <c r="I303" t="inlineStr">
+        <is>
+          <t>M41</t>
+        </is>
+      </c>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>2019 DEC 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>8/28/2019</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>SPE7MC-19-V-039W</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>$907.38</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>4330013588646</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>FILTER,FLUID</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>Norman</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>U-10193</t>
+        </is>
+      </c>
+      <c r="I304" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J304" t="inlineStr">
+        <is>
+          <t>2020 FEB 04</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>8/28/2019</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>SPE7MC-19-V-046A</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>$12,160.00</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>5935012281767</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>CONNECTOR,PLUG,ELEC</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>KJL111081-129</t>
+        </is>
+      </c>
+      <c r="I305" t="inlineStr">
+        <is>
+          <t>ZZ</t>
+        </is>
+      </c>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>2020 FEB 04</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>8/28/2019</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-P-A056</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>$12,873.46</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>5935007642967</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>COVER,ELECTRICAL CONNECTOR</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>G2410-1</t>
+        </is>
+      </c>
+      <c r="I306" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>2020 FEB 06</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>8/28/2019</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>SPE7M1-19-V-8239</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>$4,184.30</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>4730012406535</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>COUPLING,TUBE</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>Aerofit</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>3PHS111-10</t>
+        </is>
+      </c>
+      <c r="I307" t="inlineStr">
+        <is>
+          <t>M10</t>
+        </is>
+      </c>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>2020 FEB 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>8/28/2019</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>SPE7L3-19-V-7929</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>$4,530.08</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>6150015265952</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>CABLE ASSEMBLY,SPEC</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>HIAB</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>986-3788</t>
+        </is>
+      </c>
+      <c r="I308" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>2020 FEB 04</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>8/28/2019</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>SPE7M8-19-V-3183</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>$5,001.00</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>5930011154245</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>SWITCH,THERMOSTATIC</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>CPI</t>
+        </is>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>M2001-260 DEG F</t>
+        </is>
+      </c>
+      <c r="I309" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>2020 FEB 24</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>8/28/2019</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>SPE7MC-19-V-036X</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>$1,170.51</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>5935015912444</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>CLAMP,CABLE,ELECTRICAL CONNECTOR</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>G9095-23NF</t>
+        </is>
+      </c>
+      <c r="I310" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J310" t="inlineStr">
+        <is>
+          <t>2020 FEB 24</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>8/28/2019</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>SPE7MC-19-V-018T</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>$1,224.68</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>4330015249777</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>FILTER,FLUID</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>Norman</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>4311GG-20VE</t>
+        </is>
+      </c>
+      <c r="I311" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+      <c r="J311" t="inlineStr">
+        <is>
+          <t>2020 FEB 04</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>8/28/2019</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-V-024F</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>$1,351.46</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>5935016120429</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>BACKSHELL,ELECTRICA</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>457AA022NF14K</t>
+        </is>
+      </c>
+      <c r="I312" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>2020 FEB 24</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>8/28/2019</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>SPE7M0-19-V-8644</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>$1,462.81</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>6150014993983</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>CABLE ASSEMBLY,SPEC</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>National Instruments</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>777164-02</t>
+        </is>
+      </c>
+      <c r="I313" t="inlineStr">
+        <is>
+          <t>ZZ</t>
+        </is>
+      </c>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>2020 FEB 04</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>8/28/2019</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-V-077A</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>$2,776.64</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>5935015289464</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>BACKSHELL,ELECTRICA</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>380HS003NF1708A3</t>
+        </is>
+      </c>
+      <c r="I314" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J314" t="inlineStr">
+        <is>
+          <t>2020 FEB 24</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>8/28/2019</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-V-057G</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>$2,584.40</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>5935015971180</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>ADAPTER,CONNECTOR</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>TBF32-15PS</t>
+        </is>
+      </c>
+      <c r="I315" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J315" t="inlineStr">
+        <is>
+          <t>2020 FEB 24</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>8/28/2019</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-V-082Y</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>$897.57</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>5935015596993</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>COVER,ELECTRICAL CO</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>660-012B21H6-208</t>
+        </is>
+      </c>
+      <c r="I316" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J316" t="inlineStr">
+        <is>
+          <t>2020 FEB 04</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>8/28/2019</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-V-080Y</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>$3,987.00</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>5935015212692</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>BACKSHELL,ELECTRICAL</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>550E001Y4R4J0G</t>
+        </is>
+      </c>
+      <c r="I317" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J317" t="inlineStr">
+        <is>
+          <t>2020 FEB 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>8/28/2019</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>SPE7L4-19-V-1326</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>$4,058.46</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>5935011600721</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>CONNECTOR,RECEPTACLE,ELECTRICAL</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>47595-28T3</t>
+        </is>
+      </c>
+      <c r="I318" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J318" t="inlineStr">
+        <is>
+          <t>2020 FEB 04</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>8/28/2019</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>SPE7M1-19-V-002Z</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>$6,158.04</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>5999014644907</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>PLATE,ELECTRICAL SH</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>Atrenne</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>709SZ011-01</t>
+        </is>
+      </c>
+      <c r="I319" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J319" t="inlineStr">
+        <is>
+          <t>2020 FEB 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>8/28/2019</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-V-086F</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>$21,134.40</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>5985016646736</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>DIPLEXER</t>
+        </is>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>Metropole</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>DFP-106A-1</t>
+        </is>
+      </c>
+      <c r="I320" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J320" t="inlineStr">
+        <is>
+          <t>2020 FEB 04</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>8/28/2019</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-V-069Z</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>$3,420.00</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>5935016738169</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>SHELL,ELECTRICAL CONNECTOR</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>319HA112NFP25DN</t>
+        </is>
+      </c>
+      <c r="I321" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J321" t="inlineStr">
+        <is>
+          <t>2020 MAR 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>8/28/2019</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>SPE7M1-19-V-002H</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>$5,476.53</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>5935015998515</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>CLAMP,CABLE,ELECTRICAL</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>319HA105NF15DN</t>
+        </is>
+      </c>
+      <c r="I322" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>2020 FEB 24</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>8/28/2019</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>SPE7M1-19-V-9340</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>$7,512.00</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>5930015766052</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>SWITCH,LIQUID LEVEL</t>
+        </is>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>Indeeco</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>1024227</t>
+        </is>
+      </c>
+      <c r="I323" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>2020 FEB 04</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>8/28/2019</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-V-063R</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>$3,946.00</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>5998016063120</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>CIRCUIT CARD ASSEMB</t>
+        </is>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>Rohde Schwarz</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>1300.3180.05</t>
+        </is>
+      </c>
+      <c r="I324" t="inlineStr">
+        <is>
+          <t>M41</t>
+        </is>
+      </c>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>2020 FEB 04</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>8/28/2019</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>SPE7M8-19-V-3317</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>$6,184.00</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>5930011475211</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>SWITCH,THERMOSTATIC</t>
+        </is>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>CPI</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>S2004-501</t>
+        </is>
+      </c>
+      <c r="I325" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J325" t="inlineStr">
+        <is>
+          <t>2020 MAY 04</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>8/28/2019</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>SPE7MC-19-V-036C</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>$1,748.64</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>5935014967372</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>BACKSHELL,ELECTRICA</t>
+        </is>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>447AW325XW1410</t>
+        </is>
+      </c>
+      <c r="I326" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J326" t="inlineStr">
+        <is>
+          <t>2020 FEB 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>8/28/2019</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-V-079X</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>$6,721.26</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>5998013915000</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>CIRCUIT CARD ASSEMBLY</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>Morpac</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>70107-4</t>
+        </is>
+      </c>
+      <c r="I327" t="inlineStr">
+        <is>
+          <t>GX</t>
+        </is>
+      </c>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>2020 FEB 04</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>8/28/2019</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>SPE7M8-19-V-3291</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>$1,988.28</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>5930014895945</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>SWITCH,TOGGLE</t>
+        </is>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>Admartec</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>AME-10205</t>
+        </is>
+      </c>
+      <c r="I328" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J328" t="inlineStr">
+        <is>
+          <t>2019 DEC 26</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>8/28/2019</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>SPE4A6-19-V-355Z</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>$13,404.00</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>5930994959661</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>SWITCH,PROXIMITY</t>
+        </is>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>HIAB</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>1915932</t>
+        </is>
+      </c>
+      <c r="I329" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J329" t="inlineStr">
+        <is>
+          <t>2020 FEB 24</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>8/28/2019</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-V-003H</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>$4,856.80</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>5935016203323</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>BACKSHELL,ELECTRICA</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>627F189XMT24T</t>
+        </is>
+      </c>
+      <c r="I330" t="inlineStr">
+        <is>
+          <t>M10</t>
+        </is>
+      </c>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>2020 FEB 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>8/28/2019</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-P-9183</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>$25,490.50</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>5935010130853</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>CONNECTOR, PLUG, ELEC</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>CV49878-2948</t>
+        </is>
+      </c>
+      <c r="I331" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>2020 FEB 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>8/28/2019</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>SPE7M8-19-P-3108</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>$19,321.28</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>5930016129024</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>SWITCH,FLOW</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>GEMS</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>151505</t>
+        </is>
+      </c>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>2020 FEB 24</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>8/28/2019</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>SPE7M2-19-V-1635</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>$443.70</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>5935016594704</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>CONNECTOR,RECEPTACL</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>MWDM1L-9TSB</t>
+        </is>
+      </c>
+      <c r="I333" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>2020 FEB 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>8/28/2019</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-V-9971</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>$3,976.00</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>5935016748942</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>BACKSHELL,DUMMY CON</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>390AJ001Z12416H-49A</t>
+        </is>
+      </c>
+      <c r="I334" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J334" t="inlineStr">
+        <is>
+          <t>2020 FEB 24</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>8/28/2019</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>SPE7M9-19-V-0229</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>$312.06</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>5980013660800</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>LIGHT EMITTING DIOD</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>Ledtronics</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>BSD-1027-001</t>
+        </is>
+      </c>
+      <c r="I335" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J335" t="inlineStr">
+        <is>
+          <t>2019 DEC 26</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/Contract_WIP.xlsx
+++ b/Contract_WIP.xlsx
@@ -327,7 +327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J335"/>
+  <dimension ref="A1:J339"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
       <selection activeCell="G292" sqref="G292"/>
@@ -17749,6 +17749,214 @@
         </is>
       </c>
     </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>8/29/2019</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-V-096N</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>$7,777.00</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>5985016310130</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>DIPLEXER</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>Metropole</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>DFP-106A</t>
+        </is>
+      </c>
+      <c r="I336" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J336" t="inlineStr">
+        <is>
+          <t>2020 FEB 05</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>8/29/2019</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>SPE7MC-19-V-051X</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>$3,564.97</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>5905015634607</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>RESISTOR TUBE</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>HVR</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>T2530C103K-DS</t>
+        </is>
+      </c>
+      <c r="I337" t="inlineStr">
+        <is>
+          <t>M41</t>
+        </is>
+      </c>
+      <c r="J337" t="inlineStr">
+        <is>
+          <t>2020 FEB 05</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>8/8/2019</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>SPE4A4-19-V-7797</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>$1,822.19</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>6685011056196</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>INDICATOR SUBASSEMBLY, PRESSURE</t>
+        </is>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>Cameron</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>0163-0005B</t>
+        </is>
+      </c>
+      <c r="I338" t="inlineStr">
+        <is>
+          <t>ZZ</t>
+        </is>
+      </c>
+      <c r="J338" t="inlineStr">
+        <is>
+          <t>2020 JAN 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>8/8/2019</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>SPE7M3-19-V-5648</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>$2,056.23</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>4730015719495</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>ELBOW,TUBE TO BOSS</t>
+        </is>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>Druck</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>181-047</t>
+        </is>
+      </c>
+      <c r="I339" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J339" t="inlineStr">
+        <is>
+          <t>2020 JAN 15</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/Contract_WIP.xlsx
+++ b/Contract_WIP.xlsx
@@ -327,7 +327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J339"/>
+  <dimension ref="A1:J344"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
       <selection activeCell="G292" sqref="G292"/>
@@ -17957,6 +17957,266 @@
         </is>
       </c>
     </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>8/30/2019</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>SPE4A6-19-V-389U</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>$7,592.00</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>5975013088746</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>CONDUIT ASSEMBLY, METAL,FLEXIBLE</t>
+        </is>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>750-011NF08-66</t>
+        </is>
+      </c>
+      <c r="I340" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J340" t="inlineStr">
+        <is>
+          <t>2020 FEB 06</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>9/3/2019</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>SPE4A6-19-P-M250</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>$50,200.00</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>4920015467309</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>CONNECTOR,RECEPTACL</t>
+        </is>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>DPX3NE67323-170</t>
+        </is>
+      </c>
+      <c r="I341" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J341" t="inlineStr">
+        <is>
+          <t>2020 MAR 23</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>9/3/2019</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>SPE7M1-19-V-9162</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>$8,125.92</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>6625014357993</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>PANEL,MIMIC SCREEN</t>
+        </is>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>Druck</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>ADTS405-1892-20-M0</t>
+        </is>
+      </c>
+      <c r="I342" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J342" t="inlineStr">
+        <is>
+          <t>2020 FEB 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>9/4/2019</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-P-9889</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>$4,198.00</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>5935013027865</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>COVER,ELECTRICAL CONNECTOR</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>660-009M20S5-05-59</t>
+        </is>
+      </c>
+      <c r="I343" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J343" t="inlineStr">
+        <is>
+          <t>2020 FEB 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>9/4/2019</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>SPE7M8-19-P-3430</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>$7,676.00</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>5930011475211</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>SWITCH,THERMOSTATIC</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>Calculagraph</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>S2004-501</t>
+        </is>
+      </c>
+      <c r="I344" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J344" t="inlineStr">
+        <is>
+          <t>2020 MAR 02</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/Contract_WIP.xlsx
+++ b/Contract_WIP.xlsx
@@ -327,7 +327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J344"/>
+  <dimension ref="A1:J346"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
       <selection activeCell="G292" sqref="G292"/>
@@ -18217,6 +18217,110 @@
         </is>
       </c>
     </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>9/5/2019</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>SPE5EJ-19-V-6860</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>$1,965.06</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>5330012080303</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>GASKET</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>Fluid Handling</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>3-299-8-06-211-11</t>
+        </is>
+      </c>
+      <c r="I345" t="inlineStr">
+        <is>
+          <t>M33</t>
+        </is>
+      </c>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>2020 FEB 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>9/6/2019</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>SPE8EE-19-P-0873</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>$2,847.12</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>4930015230838</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>SIEVE, OIL</t>
+        </is>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>Sauer</t>
+        </is>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>036 896</t>
+        </is>
+      </c>
+      <c r="I346" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J346" t="inlineStr">
+        <is>
+          <t>2020 FEB 13</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/Contract_WIP.xlsx
+++ b/Contract_WIP.xlsx
@@ -327,7 +327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J346"/>
+  <dimension ref="A1:J351"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
       <selection activeCell="G292" sqref="G292"/>
@@ -18321,6 +18321,266 @@
         </is>
       </c>
     </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>9/9/2019</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>SPE7MC-19-V-056H</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>$13,638.40</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>6625014356345</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>TRANSDUCER,CONTROL</t>
+        </is>
+      </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>Druck</t>
+        </is>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>AS405-72-1893M0</t>
+        </is>
+      </c>
+      <c r="I347" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J347" t="inlineStr">
+        <is>
+          <t>2020 MAR 09</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>9/9/2019</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>SPE5E2-19-V-9440</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>$119.24</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>5360013488285</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>SPRING,HELICAL,COMP</t>
+        </is>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>Lee Spring</t>
+        </is>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>LC-050K-6</t>
+        </is>
+      </c>
+      <c r="I348" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J348" t="inlineStr">
+        <is>
+          <t>2020 FEB 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>9/9/2019</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>SPE8E8-19-V-2804</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>$10,799.60</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>4520012333242</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>HEATING ELEMENT,ELE</t>
+        </is>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>Indeeco</t>
+        </is>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>571X-69589</t>
+        </is>
+      </c>
+      <c r="I349" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J349" t="inlineStr">
+        <is>
+          <t>2020 FEB 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>9/9/2019</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>SPE7M3-19-V-6193</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>$3,797.28</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>4730012777699</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>EXPANSION JOINT, PIPE</t>
+        </is>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>General Rubber</t>
+        </is>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>1101-0040-060-OBN</t>
+        </is>
+      </c>
+      <c r="I350" t="inlineStr">
+        <is>
+          <t>M20</t>
+        </is>
+      </c>
+      <c r="J350" t="inlineStr">
+        <is>
+          <t>2020 FEB 21</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>9/9/2019</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>SPE7MC-19-V-060D</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>$36,503.12</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>5935015680679</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>DUMMY CONNECTOR,PLUG</t>
+        </is>
+      </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>250-020</t>
+        </is>
+      </c>
+      <c r="I351" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J351" t="inlineStr">
+        <is>
+          <t>2020 MAR 09</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/Contract_WIP.xlsx
+++ b/Contract_WIP.xlsx
@@ -327,7 +327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J351"/>
+  <dimension ref="A1:J353"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
       <selection activeCell="G292" sqref="G292"/>
@@ -18581,6 +18581,110 @@
         </is>
       </c>
     </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>9/10/2019</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>SPE7MC-19-V-063N</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>$749.28</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>7021015780592</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>COMPUTER SUBASSEMBLY</t>
+        </is>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>National Instruments</t>
+        </is>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>779103-01</t>
+        </is>
+      </c>
+      <c r="I352" t="inlineStr">
+        <is>
+          <t>M10</t>
+        </is>
+      </c>
+      <c r="J352" t="inlineStr">
+        <is>
+          <t>2020 FEB 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>9/10/2019</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>SPE4A6-19-V-404Q</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>$2,243.38</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>6685014571389</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>GAGE, DIFFERENTIAL PRESSURE</t>
+        </is>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>Cameron</t>
+        </is>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>07ABXXX0X84A5BXXBX01</t>
+        </is>
+      </c>
+      <c r="I353" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J353" t="inlineStr">
+        <is>
+          <t>2020 FEB 27</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/Contract_WIP.xlsx
+++ b/Contract_WIP.xlsx
@@ -327,7 +327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J353"/>
+  <dimension ref="A1:J355"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
       <selection activeCell="G292" sqref="G292"/>
@@ -18685,6 +18685,110 @@
         </is>
       </c>
     </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>9/12/2019</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>SPE5E3-19-P-1990</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>2067</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>$4,898.79</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>5331010167550</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>O-RING</t>
+        </is>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>Cameron</t>
+        </is>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>0001.0038.R</t>
+        </is>
+      </c>
+      <c r="I354" t="inlineStr">
+        <is>
+          <t>M33</t>
+        </is>
+      </c>
+      <c r="J354" t="inlineStr">
+        <is>
+          <t>2020 FEB 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>9/12/2019</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>SPE4A6-19-V-408Q</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>$3,184.75</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>5342013709481</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>MOUNT,RESILIENT,WEA</t>
+        </is>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>Vibration Mountings</t>
+        </is>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>CB1300-50-CI</t>
+        </is>
+      </c>
+      <c r="I355" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J355" t="inlineStr">
+        <is>
+          <t>2020 FEB 19</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/Contract_WIP.xlsx
+++ b/Contract_WIP.xlsx
@@ -327,7 +327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J355"/>
+  <dimension ref="A1:J357"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
       <selection activeCell="G292" sqref="G292"/>
@@ -18789,6 +18789,110 @@
         </is>
       </c>
     </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>9/13/2019</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>SPE5EK-19-V-6967</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>$187.00</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>5340015796639</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>COVER,PROTECTIVE,DU</t>
+        </is>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>660-014NF10U8-09</t>
+        </is>
+      </c>
+      <c r="I356" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J356" t="inlineStr">
+        <is>
+          <t>2020 MAR 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>9/13/2019</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>SPE5EJ-19-V-7054</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>$156.00</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>5330010396656</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>GASKET</t>
+        </is>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>Cameron</t>
+        </is>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>S888.0016Z</t>
+        </is>
+      </c>
+      <c r="I357" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+      <c r="J357" t="inlineStr">
+        <is>
+          <t>2020 FEB 20</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/Contract_WIP.xlsx
+++ b/Contract_WIP.xlsx
@@ -327,13 +327,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J357"/>
+  <dimension ref="A1:J361"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
       <selection activeCell="G292" sqref="G292"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" width="13.7109375"/>
     <col bestFit="1" customWidth="1" max="2" min="2" width="17.7109375"/>
@@ -18893,6 +18893,214 @@
         </is>
       </c>
     </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>9/16/2019</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>SPE4A6-19-V-424H</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>$10,452.00</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>6685010738432</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>GAGE,DIFFERENTIAL,D</t>
+        </is>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>Cameron</t>
+        </is>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>20BCXXX0XX8E1BAAXX04</t>
+        </is>
+      </c>
+      <c r="I358" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J358" t="inlineStr">
+        <is>
+          <t>2020 MAR 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>9/16/2019</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>SPE7M0-19-V-046H</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>$743.32</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>5935014777576</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>BACKSHELL,ELECTRICA</t>
+        </is>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>500-029NF25H08</t>
+        </is>
+      </c>
+      <c r="I359" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J359" t="inlineStr">
+        <is>
+          <t>2020 MAR 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>9/16/2019</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>SPE7M1-19-V-053K</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>$187.00</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>5935015350909</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>COVER,ELECTRICAL CO</t>
+        </is>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>660-014NF10U6-09</t>
+        </is>
+      </c>
+      <c r="I360" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J360" t="inlineStr">
+        <is>
+          <t>2020 MAR 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>9/18/2019</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>SPE4A4-19-V-9013</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>$7,754.40</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>5365016806299</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>SPACER,SPECIAL SHAP</t>
+        </is>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>HIAB</t>
+        </is>
+      </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>3609936</t>
+        </is>
+      </c>
+      <c r="I361" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J361" t="inlineStr">
+        <is>
+          <t>2020 MAR 02</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/Contract_WIP.xlsx
+++ b/Contract_WIP.xlsx
@@ -327,13 +327,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J361"/>
+  <dimension ref="A1:J371"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
       <selection activeCell="G292" sqref="G292"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" width="13.7109375"/>
     <col bestFit="1" customWidth="1" max="2" min="2" width="17.7109375"/>
@@ -19101,6 +19101,526 @@
         </is>
       </c>
     </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>9/19/2019</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>SPE7M1-19-V-057Q</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>$2,639.00</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>5935015360017</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>DUMMY CONNECTOR,RECEPTACLE</t>
+        </is>
+      </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>650HS058NF25</t>
+        </is>
+      </c>
+      <c r="I362" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J362" t="inlineStr">
+        <is>
+          <t>2020 MAR 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>9/12/2019</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-V-116M</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>$1,915.00</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>5935016512754</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>BACKSHELL,ELECTRICA</t>
+        </is>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>443AS024NF1404-3S</t>
+        </is>
+      </c>
+      <c r="I363" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+      <c r="J363" t="inlineStr">
+        <is>
+          <t>2020 MAR 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>9/12/2019</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>SPE7M1-19-V-046H</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>$849.45</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>5935014667112</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>SHELL,ELECTRICAL CO</t>
+        </is>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>Kern</t>
+        </is>
+      </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>BAT86-19W07C</t>
+        </is>
+      </c>
+      <c r="I364" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J364" t="inlineStr">
+        <is>
+          <t>2020 FEB 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>9/12/2019</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-V-116S</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>$805.20</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>5935015754171</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>COVER,ELECTRICAL CONNECTOR</t>
+        </is>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>660-008NF18F6-12</t>
+        </is>
+      </c>
+      <c r="I365" t="inlineStr">
+        <is>
+          <t>ZZ</t>
+        </is>
+      </c>
+      <c r="J365" t="inlineStr">
+        <is>
+          <t>2020 MAR 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>9/12/2019</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-V-116T</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>$1,643.05</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>5935016499431</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>BACKSHELL,ELECTRICA</t>
+        </is>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>440AS156NF2216-16-4</t>
+        </is>
+      </c>
+      <c r="I366" t="inlineStr">
+        <is>
+          <t>M41</t>
+        </is>
+      </c>
+      <c r="J366" t="inlineStr">
+        <is>
+          <t>2020 MAR 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>9/12/2019</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-V-115D</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>$7,089.76</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>5935015812863</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>BACKSHELL,ELECTRICAL CONNECTOR</t>
+        </is>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>447HS105NF0901K</t>
+        </is>
+      </c>
+      <c r="I367" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J367" t="inlineStr">
+        <is>
+          <t>2020 MAR 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>9/12/2019</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-V-116K</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>$1,244.28</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>5935015754188</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>COVER,ELECTRICAL CO</t>
+        </is>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>660-008NF22F6-16</t>
+        </is>
+      </c>
+      <c r="I368" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J368" t="inlineStr">
+        <is>
+          <t>2020 MAR 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>9/20/2019</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>SPE5E3-19-V-061E</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>$332.28</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>5330015847794</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>GASKET</t>
+        </is>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>Cameron</t>
+        </is>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>9A.0199.0027C</t>
+        </is>
+      </c>
+      <c r="I369" t="inlineStr">
+        <is>
+          <t>M10</t>
+        </is>
+      </c>
+      <c r="J369" t="inlineStr">
+        <is>
+          <t>2020 FEB 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>9/20/2019</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>SPE5EJ-19-V-7230</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>$290.30</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>5330010771949</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>GASKET</t>
+        </is>
+      </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>Munters</t>
+        </is>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>C60508-01</t>
+        </is>
+      </c>
+      <c r="I370" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+      <c r="J370" t="inlineStr">
+        <is>
+          <t>2020 FEB 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>9/20/2019</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>SPE7M8-19-P-3507</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>$8,610.00</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>5930011263228</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>SWITCH ASSEMBLY</t>
+        </is>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>Cole</t>
+        </is>
+      </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>3600-3623</t>
+        </is>
+      </c>
+      <c r="I371" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J371" t="inlineStr">
+        <is>
+          <t>2020 MAR 16</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/Contract_WIP.xlsx
+++ b/Contract_WIP.xlsx
@@ -327,7 +327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J371"/>
+  <dimension ref="A1:J375"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
       <selection activeCell="G292" sqref="G292"/>
@@ -19621,6 +19621,214 @@
         </is>
       </c>
     </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>9/23/2019</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>SPE4A4-19-V-9088</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>$9,270.00</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>5999012939829</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>DELAY LINE</t>
+        </is>
+      </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>Data Delay</t>
+        </is>
+      </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>1503-Z551-2</t>
+        </is>
+      </c>
+      <c r="I372" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J372" t="inlineStr">
+        <is>
+          <t>2020 MAR 02</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>9/23/2019</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>SPE7L5-19-V-2751</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>$12,312.08</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>2910016265028</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>ACTUATOR,ELECTRO-ME</t>
+        </is>
+      </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>9534</t>
+        </is>
+      </c>
+      <c r="I373" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J373" t="inlineStr">
+        <is>
+          <t>2020 MAR 23</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>9/24/2019</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-V-119Y</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>$4,260.00</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>5935016748942</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>BACKSHELL,DUMMY CON</t>
+        </is>
+      </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>390AJ001Z12416H-49A</t>
+        </is>
+      </c>
+      <c r="I374" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J374" t="inlineStr">
+        <is>
+          <t>2020 APR 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>9/24/2019</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>SPE7M3-19-P-5579</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>$9,747.21</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>4730010596367</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>ELBOW, TUBE. TITANIUM</t>
+        </is>
+      </c>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>Aerofit</t>
+        </is>
+      </c>
+      <c r="H375" t="inlineStr">
+        <is>
+          <t>AFP1468T16</t>
+        </is>
+      </c>
+      <c r="I375" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J375" t="inlineStr">
+        <is>
+          <t>2020 APR 06</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/Contract_WIP.xlsx
+++ b/Contract_WIP.xlsx
@@ -327,7 +327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J375"/>
+  <dimension ref="A1:J380"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
       <selection activeCell="G292" sqref="G292"/>
@@ -19829,6 +19829,266 @@
         </is>
       </c>
     </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>9/25/2019</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>SPE7L0-19-V-8238</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>$1,009.64</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>5935001465811</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>CONNECTOR,PLUG,ELEC</t>
+        </is>
+      </c>
+      <c r="G376" t="inlineStr">
+        <is>
+          <t>ITT</t>
+        </is>
+      </c>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>CA3106F10SL3SF80</t>
+        </is>
+      </c>
+      <c r="I376" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J376" t="inlineStr">
+        <is>
+          <t>2020 MAR 23</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>9/25/2019</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>SPE7M3-19-P-5468</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>$2,687.90</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>4730012777700</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>EXPANSION JOINT, PIPE</t>
+        </is>
+      </c>
+      <c r="G377" t="inlineStr">
+        <is>
+          <t>General Rubber</t>
+        </is>
+      </c>
+      <c r="H377" t="inlineStr">
+        <is>
+          <t>1015-0060-OIN</t>
+        </is>
+      </c>
+      <c r="I377" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J377" t="inlineStr">
+        <is>
+          <t>2020 FEB 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>9/25/2019</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>SPE4A4-19-V-9177</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>$33,896.28</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>6685011348185</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>GAGE,DIFFERENTIAL,D</t>
+        </is>
+      </c>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>Cameron</t>
+        </is>
+      </c>
+      <c r="H378" t="inlineStr">
+        <is>
+          <t>19NCXXX0X15E1BXAXX03</t>
+        </is>
+      </c>
+      <c r="I378" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J378" t="inlineStr">
+        <is>
+          <t>2020 MAR 23</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>9/25/2019</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>SPE7M5-19-V-120X</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>$6,629.10</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>5935012318266</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>CONNECTOR BODY,RECE</t>
+        </is>
+      </c>
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>DITMCO</t>
+        </is>
+      </c>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>025-04623-0003</t>
+        </is>
+      </c>
+      <c r="I379" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J379" t="inlineStr">
+        <is>
+          <t>2020 MAR 03</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>9/25/2019</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>SPETA6-19-V-0316</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>$18,025.77</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>1680012526375</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>CYLINDER ASSEMBLY, REACTION</t>
+        </is>
+      </c>
+      <c r="G380" t="inlineStr">
+        <is>
+          <t>Avibank</t>
+        </is>
+      </c>
+      <c r="H380" t="inlineStr">
+        <is>
+          <t>53301-3</t>
+        </is>
+      </c>
+      <c r="I380" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J380" t="inlineStr">
+        <is>
+          <t>2020 MAY 22</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/Contract_WIP.xlsx
+++ b/Contract_WIP.xlsx
@@ -327,13 +327,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J380"/>
+  <dimension ref="A1:J381"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
       <selection activeCell="G292" sqref="G292"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" width="13.7109375"/>
     <col bestFit="1" customWidth="1" max="2" min="2" width="17.7109375"/>
@@ -20089,6 +20089,58 @@
         </is>
       </c>
     </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>9/26/2019</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>SPE7MC-19-V-082D</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>$2,635.12</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>6060016301622</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>CONNECTOR,PLUG,FIBE</t>
+        </is>
+      </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>180-060XW06-13-4SC</t>
+        </is>
+      </c>
+      <c r="I381" t="inlineStr">
+        <is>
+          <t>M41</t>
+        </is>
+      </c>
+      <c r="J381" t="inlineStr">
+        <is>
+          <t>2020 MAR 24</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/Contract_WIP.xlsx
+++ b/Contract_WIP.xlsx
@@ -327,13 +327,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J381"/>
+  <dimension ref="A1:J383"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
       <selection activeCell="G292" sqref="G292"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" width="13.7109375"/>
     <col bestFit="1" customWidth="1" max="2" min="2" width="17.7109375"/>
@@ -20141,6 +20141,110 @@
         </is>
       </c>
     </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>9/27/2019</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>SPE7MC-19-V-085X</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>$4,704.00</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>5935010578732</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>BACKSHELL,ELECTRICA</t>
+        </is>
+      </c>
+      <c r="G382" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H382" t="inlineStr">
+        <is>
+          <t>G5796N2820MN</t>
+        </is>
+      </c>
+      <c r="I382" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J382" t="inlineStr">
+        <is>
+          <t>2020 MAR 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>9/27/2019</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>SPE4A6-19-P-P489</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>$4,737.88</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>6685014522074</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>GAGE, DIFFERENTIAL, DIAL INDICATING</t>
+        </is>
+      </c>
+      <c r="G383" t="inlineStr">
+        <is>
+          <t>Cameron</t>
+        </is>
+      </c>
+      <c r="H383" t="inlineStr">
+        <is>
+          <t>19BCXXX0X30E1BXAXX05</t>
+        </is>
+      </c>
+      <c r="I383" t="inlineStr">
+        <is>
+          <t>M10</t>
+        </is>
+      </c>
+      <c r="J383" t="inlineStr">
+        <is>
+          <t>2020 MAR 16</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/Contract_WIP.xlsx
+++ b/Contract_WIP.xlsx
@@ -327,7 +327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J383"/>
+  <dimension ref="A1:J386"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
       <selection activeCell="G292" sqref="G292"/>
@@ -20245,6 +20245,162 @@
         </is>
       </c>
     </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>09/30/2019</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>SPE4A6-19-V-456V</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>$15,543.00 </t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>5895015065533</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>CONTROL,INTERFACE</t>
+        </is>
+      </c>
+      <c r="G384" t="inlineStr">
+        <is>
+          <t>KVH</t>
+        </is>
+      </c>
+      <c r="H384" t="inlineStr">
+        <is>
+          <t>19-0156-14</t>
+        </is>
+      </c>
+      <c r="I384" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J384" t="inlineStr">
+        <is>
+          <t>2020 MAR 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>9/12/2019</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>SPE7M1-19-V-8519</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>$4,668.08</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>5935016157811</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>COVER,ELECTRICAL CO</t>
+        </is>
+      </c>
+      <c r="G385" t="inlineStr">
+        <is>
+          <t>Glenair</t>
+        </is>
+      </c>
+      <c r="H385" t="inlineStr">
+        <is>
+          <t>660-023NF23H5-70</t>
+        </is>
+      </c>
+      <c r="I385" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J385" t="inlineStr">
+        <is>
+          <t>2020 MAR 02</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>9/12/2019</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>SPE7M8-19-V-3723</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>$304.00</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>5930999275375</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>SWITCH,PROXIMITY</t>
+        </is>
+      </c>
+      <c r="G386" t="inlineStr">
+        <is>
+          <t>HIAB</t>
+        </is>
+      </c>
+      <c r="H386" t="inlineStr">
+        <is>
+          <t>MU110781401</t>
+        </is>
+      </c>
+      <c r="I386" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J386" t="inlineStr">
+        <is>
+          <t>2020 FEB 19</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/Contract_WIP.xlsx
+++ b/Contract_WIP.xlsx
@@ -327,7 +327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J386"/>
+  <dimension ref="A1:J393"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
       <selection activeCell="G292" sqref="G292"/>
@@ -20401,6 +20401,370 @@
         </is>
       </c>
     </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>10/01/2019</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>SPE7MC-20-V-0034</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>$2,638.08</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>5935015213539</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>BACKSHELL,ELECTRICA</t>
+        </is>
+      </c>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>GLENAIR</t>
+        </is>
+      </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>447HW325XW2115</t>
+        </is>
+      </c>
+      <c r="I387" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J387" t="inlineStr">
+        <is>
+          <t>2020 MAR 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>10/01/2019</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>SPE7MC-20-V-0040</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>$6,270.00</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>5935016786661</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>BACKSHELL,ELECTRICA</t>
+        </is>
+      </c>
+      <c r="G388" t="inlineStr">
+        <is>
+          <t>GLENAIR</t>
+        </is>
+      </c>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>445HH065NF2506</t>
+        </is>
+      </c>
+      <c r="I388" t="inlineStr">
+        <is>
+          <t>M41</t>
+        </is>
+      </c>
+      <c r="J388" t="inlineStr">
+        <is>
+          <t>2020 APR 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>10/01/2019</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>SPE7M1-20-P-0143</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>$2,259.20</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>4310123497869</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>RING,PISTON</t>
+        </is>
+      </c>
+      <c r="G389" t="inlineStr">
+        <is>
+          <t>Sauer</t>
+        </is>
+      </c>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>034213</t>
+        </is>
+      </c>
+      <c r="I389" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J389" t="inlineStr">
+        <is>
+          <t>2020 MAR 09</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>10/01/2019</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>SPE7MC-20-V-0037</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>$6,545.70</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>5935014857325</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>DUMMY CONNECTOR,PLUG</t>
+        </is>
+      </c>
+      <c r="G390" t="inlineStr">
+        <is>
+          <t>KVH</t>
+        </is>
+      </c>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>02-0782</t>
+        </is>
+      </c>
+      <c r="I390" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J390" t="inlineStr">
+        <is>
+          <t>2020 MAR 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>10/02/2019</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>SPE7M1-20-V-0104</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>$5,891.12 </t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>5950015520335</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>TRANSFORMER,POWER</t>
+        </is>
+      </c>
+      <c r="G391" t="inlineStr">
+        <is>
+          <t>EMS</t>
+        </is>
+      </c>
+      <c r="H391" t="inlineStr">
+        <is>
+          <t>401A8046-1</t>
+        </is>
+      </c>
+      <c r="I391" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J391" t="inlineStr">
+        <is>
+          <t>2020 MAR 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>10/02/2019</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>SPE7MC-20-V-0086</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>$718.32</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>4810016510206</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>VALVE,BALL</t>
+        </is>
+      </c>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>PBM</t>
+        </is>
+      </c>
+      <c r="H392" t="inlineStr">
+        <is>
+          <t>SPE-D6U-A---02</t>
+        </is>
+      </c>
+      <c r="I392" t="inlineStr">
+        <is>
+          <t>M50</t>
+        </is>
+      </c>
+      <c r="J392" t="inlineStr">
+        <is>
+          <t>2020 MAR 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>10/02/2019</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>SPE7M1-20-V-0173</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>$1,511.00 </t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>5930012809974</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>SWITCH SUBASSEMBLY</t>
+        </is>
+      </c>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>GEMS</t>
+        </is>
+      </c>
+      <c r="H393" t="inlineStr">
+        <is>
+          <t>111148</t>
+        </is>
+      </c>
+      <c r="I393" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="J393" t="inlineStr">
+        <is>
+          <t>2020 MAR 20</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
